--- a/data/hotels_by_city/Dallas/Dallas_shard_129.xlsx
+++ b/data/hotels_by_city/Dallas/Dallas_shard_129.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="713">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="795">
   <si>
     <t>STR#</t>
   </si>
@@ -150,6 +150,9 @@
     <t>response_text</t>
   </si>
   <si>
+    <t>MJfromColorado</t>
+  </si>
+  <si>
     <t>06/07/2018</t>
   </si>
   <si>
@@ -189,6 +192,9 @@
     <t>A beautiful place with a level of service at every point of contact that far exceeded our expectations. At the airport, we were greeted by a young man who clearly takes his role as "first customer contact" very seriously! He was upbeat and very enthusiastic about life and this hotel. Upon checkin at the front desk, we encountered not one but two of the most engaged, helpful and cheerful hospitality professionals I can recall meeting in all my travels. In the two days we have been here, they have helped us with transportation, suggestions for interesting places to dine and even personal recommendations so that I could enjoy a nearby salon! They were fantastic communicators ... making our concerns their own far more than we would have expected. At the Bistro, breakfast included an impressive gourmet selection ...with options such as avocado toast, yogurt with toasted coconut and pineapple and stuffed french toast! Not to mention Starbucks coffee! Both the service and the presentation rivaled offerings at hotels three times this expensive. The rooms are very comfortable and very clean... with every member of housekeeping we met equally cheerful and thorough in attending to all our possible needs. Seriously, whatever is happening in terms of hiring and training, you are doing something special here! We enjoyed time by the small but lovely pool, sitting out at the fire pit with a nightcap and watching the basketball game in the lounge....A beautiful place with a level of service at every point of contact that far exceeded our expectations. At the airport, we were greeted by a young man who clearly takes his role as "first customer contact" very seriously! He was upbeat and very enthusiastic about life and this hotel. Upon checkin at the front desk, we encountered not one but two of the most engaged, helpful and cheerful hospitality professionals I can recall meeting in all my travels. In the two days we have been here, they have helped us with transportation, suggestions for interesting places to dine and even personal recommendations so that I could enjoy a nearby salon! They were fantastic communicators ... making our concerns their own far more than we would have expected. At the Bistro, breakfast included an impressive gourmet selection ...with options such as avocado toast, yogurt with toasted coconut and pineapple and stuffed french toast! Not to mention Starbucks coffee! Both the service and the presentation rivaled offerings at hotels three times this expensive. The rooms are very comfortable and very clean... with every member of housekeeping we met equally cheerful and thorough in attending to all our possible needs. Seriously, whatever is happening in terms of hiring and training, you are doing something special here! We enjoyed time by the small but lovely pool, sitting out at the fire pit with a nightcap and watching the basketball game in the lounge. Also, the freeway access made it easy to head downtown (free shuttle within 5 miles, Uber and Lyft always closeby for longer excursions!) Bottom line? We cannot imagine staying anywhere else the next times we are in need of a place to stay in this area! Thank you, Team CBM, Dallas/Las Colinas!More</t>
   </si>
   <si>
+    <t>esapage</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d109047-r568169526-Courtyard_by_Marriott_Dallas_Las_Colinas-Irving_Texas.html</t>
   </si>
   <si>
@@ -216,6 +222,9 @@
     <t>This hotel is in desperate need of an update. If I wasn’t with the group I would’ve gone to a different Marriott property. I’m a platinum member and tend to like the courtyard brand. However this home is very dated and not as clean as I would’ve liked. I like the giveaway extra points but that does not make up for the experience at this hotel.More</t>
   </si>
   <si>
+    <t>Chantal V</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d109047-r564687126-Courtyard_by_Marriott_Dallas_Las_Colinas-Irving_Texas.html</t>
   </si>
   <si>
@@ -243,6 +252,9 @@
     <t>We were in the area for a birthday celebration.  My daughters chose hotel because of the heated pool.After being outdoors in the sun for many hours, the grandkids REALLY loved their pool time.Our rooms were very spacious with adequate amenities.  The pillows were perfect, the beds very comfy &amp; room VERY dark like I like it.We slept &amp; rested so well, it was good to restore ourselves into a new day.Never been in a room with balcony but it was cool to open door &amp; enjoy the breeze.Both front desk attendants were helpful, the evening one pointed us to The Fuzzy Taco Shop for supper and we really enjoyed it. The next morning we had a wonderful family brunch at The Original Pancake House...a MUST since unfortunately there is no complimentary breakfast at hotel.Great place to stay when in the area!More</t>
   </si>
   <si>
+    <t>emkada84</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d109047-r563736150-Courtyard_by_Marriott_Dallas_Las_Colinas-Irving_Texas.html</t>
   </si>
   <si>
@@ -270,6 +282,9 @@
     <t>I stayed here for one night while in Dallas for work. The hotel lobby is updated and what you'd typically expect from a Courtyard, but the rooms are fairly dated. The location was great for what I needed and very convenient to the airport as well.More</t>
   </si>
   <si>
+    <t>Cesar Alexander T</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d109047-r557810231-Courtyard_by_Marriott_Dallas_Las_Colinas-Irving_Texas.html</t>
   </si>
   <si>
@@ -297,6 +312,9 @@
     <t>Clean Hotel, lots of rooms, price is accessible, not a big restaurant area, and it has indoor pool.   It has enough parking space if you rent a car, with no additional charge.The rooms are clean, decent size, and the wifi works OK in all the hotel.More</t>
   </si>
   <si>
+    <t>CTaaB</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d109047-r555580140-Courtyard_by_Marriott_Dallas_Las_Colinas-Irving_Texas.html</t>
   </si>
   <si>
@@ -321,6 +339,9 @@
     <t>Stayed here again on business. Location very convenient. The property is a bit dated (particularly the room colors,) HOWEVER, it is very well maintained. The lobby was so nice (fireplace, comfortable seating, nice window view of the courtyard.) The staff is truly exceptional. Everyone I interacted with was professional, sincerely friendly, service-oriented and made the stay very pleasant. The breakfast staff was also very professional and considerate and the meal was beautifully presented!More</t>
   </si>
   <si>
+    <t>Jo A</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d109047-r551028469-Courtyard_by_Marriott_Dallas_Las_Colinas-Irving_Texas.html</t>
   </si>
   <si>
@@ -348,6 +369,9 @@
     <t>Enjoyed my stay here last month.  Hotel is a standard Courtyard,  they are literally identical at every location.  However staff were very friendly,  breakfast was good and staff at the bar super helpful.The main issues were  a musty methane , awful smell in the hallways on the second floor, I couldn't detect it on the ground floor but it was very strong on the second. And the walk from the elevator,  there is a really weird layout and my room was so far away, it's only a small issue but anyone with mobility issues would really struggle,  so if you have issues ask for room closer to the elevator.The saving grace though was the staff, super friendly on check in and very genuine ,More</t>
   </si>
   <si>
+    <t>543timothyw</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d109047-r545819953-Courtyard_by_Marriott_Dallas_Las_Colinas-Irving_Texas.html</t>
   </si>
   <si>
@@ -366,6 +390,9 @@
     <t>I was in to visit one of our offices and selected this hotel as the usual place to stay was booked. I was very impressed with my short stay there.SERVICE:  Front desk staff were extremely friendly and helpful, as well as professional. I was upgraded to a suite, which was unexpected, but very nice after a long trip!HOTEL APPEARANCE:  This is a newer hotel, and it shows. The lobby is clean and modern, with the bar/dining area right off it. Small sunken couches create an atmosphere where you can have a drink or a  snack and talk to friends without others intruding, yet you still feel a part of the overall groups around you.ROOM: The bed was comfortable to the extreme. I'm picky about beds. I'm old, with back problems, so some mattresses that hotels have are just awful. Not the case here, I slept well.  There were an abundance of cable channels, microwave, etc. Overall a pleasant room experience.POOL/ETC.: Nice pool, great workout room. They don't slack on the gym equipment here. This will definitely be my new hotel choice when I travel to the Irving, TX area in the future.More</t>
   </si>
   <si>
+    <t>Jordan C</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d109047-r540552276-Courtyard_by_Marriott_Dallas_Las_Colinas-Irving_Texas.html</t>
   </si>
   <si>
@@ -393,6 +420,9 @@
     <t>The hotel was what you would expect - standard accommodations. The pool was very nice - indoor/outdoor. For November the weather was chilly, but my family had fun swimming back and forth (the water was cold!). The beds were comfortable and the staff friendly. I would recommend this hotel and would stay again. More</t>
   </si>
   <si>
+    <t>BestLife2010</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d109047-r523289281-Courtyard_by_Marriott_Dallas_Las_Colinas-Irving_Texas.html</t>
   </si>
   <si>
@@ -423,6 +453,9 @@
     <t>Room was as clean as you would expect. All toiletries included, and it was nice to put my leftover dinner in the little fridge. Nice large flatscreen TV, but located to the side of the bed, so angle was a little awkward. The only thing that ticked me off a little was that the shuttle was only available through the week and not on the weekends. We only wanted to be taken across the highway to the convention center (there was limited parking there), so it's not like we wanted to go far. So while we did get a ride on Friday, we had to opt for a ride from a couple of Uber drivers. Cost us about $10 roundtrip for what should have been free through the hotel, in my opinion.More</t>
   </si>
   <si>
+    <t>Gabe10101</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d109047-r513739337-Courtyard_by_Marriott_Dallas_Las_Colinas-Irving_Texas.html</t>
   </si>
   <si>
@@ -450,6 +483,9 @@
     <t>This Marriott Courtyard location is one of the better hotels in the chain.  Rooms were clean, but dated.  The lobby was very nice and the namesake courtyard within the hotel was exceptional with comfortable seating and a nice indoor/outdoor pool.  The staff was extremely helpful, especially Gabriel who checked us in.  Parking is free and plentiful.  The suburban location is quiet and is surrounded by businesses that are closed on the weekend.  A few restaurants, gas stations, and other necessities are within walking distance, but not much else.  Note that this hotel does not offer free breakfast.  The hotel does not offer a shuttle to the airport, but the shuttle will take you to the nearby DART station which offers convenient transportation directly to DFW for only $2.50 (kids are half that).  The shuttle has limited hours, especially on weekends, but the station is only an easy mile walk away. My suggestion, stay at this Courtyard, skip the rental car, buy the $5 all-day DART pass and enjoy downtown Dallas for a day or two.  Get the CityPass and enjoy much of what Dallas has to offer for a great value.More</t>
   </si>
   <si>
+    <t>pinkgirl7938</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d109047-r506519377-Courtyard_by_Marriott_Dallas_Las_Colinas-Irving_Texas.html</t>
   </si>
   <si>
@@ -480,6 +516,9 @@
     <t>My family and some friends had to find a hotel at the very last minute very late at night after another hotel was horrible and we had to leave. The staff were so friendly, they even opened up the bistro for us to get a wind down drink after everything we had gone through. We have always been satisfied with Marriott hotels and we will not "cheat" on them again. They never disappoint and when there is an issue you can guarantee they will make it right in some way. The rooms were very nice and the sleep was comfortable. The air conditioner could have worked a little more quietly, but they did offer to move us to another room, which we kindly declined. Just knowing that they cared enough to offer was enough. Highly recommend.More</t>
   </si>
   <si>
+    <t>scumpton</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d109047-r500404528-Courtyard_by_Marriott_Dallas_Las_Colinas-Irving_Texas.html</t>
   </si>
   <si>
@@ -504,6 +543,9 @@
     <t>This place is nice.  They staff is friendly and you can get a suite for a good rate.  The beds are comfortable too.  My son's baseball team has stayed here twice and the boys love it.  It doesn't look great when you drive up, but don't panic.  It is located where you can get most places you need to go within 20 minutes.  It has a pool that has an indoor and outdoor swim area.  The kids love to swim through to the outside.  There is a small nice gym that I use every time.More</t>
   </si>
   <si>
+    <t>Jildac</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d109047-r489671166-Courtyard_by_Marriott_Dallas_Las_Colinas-Irving_Texas.html</t>
   </si>
   <si>
@@ -531,6 +573,9 @@
     <t>The lobby looks fantastic, so when we began heading to the rooms we were disappointed by the carpets that looked like they were from the 70's.  Then we got to the elevator and it was old, and not in the best condition.  Creaks, mysteriously opens and you have to push the 0 level button in order to push the lobby button.  The rooms...they were immaculately clean!  The furniture and rooms were outdated, so that was a bummer.  The service....EXCEPTIONAL! so if you do not mind out dated, this place is fine....I expected more from a Marriott.More</t>
   </si>
   <si>
+    <t>WorkingMomTravels</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d109047-r487513917-Courtyard_by_Marriott_Dallas_Las_Colinas-Irving_Texas.html</t>
   </si>
   <si>
@@ -555,6 +600,9 @@
     <t>Great service and very friendly staff.  When we first checked in we over heard a gentleman complaining about walking in on occupants in the room they gave him.  Later that night we had the same thing happen to us, someone tried to get In our room but thankfully I had the latch over the door so they only got the door open a couple inches.  I reported it immediately and the staff changed our locks and gave us new keys.  More</t>
   </si>
   <si>
+    <t>Paul H</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d109047-r484806611-Courtyard_by_Marriott_Dallas_Las_Colinas-Irving_Texas.html</t>
   </si>
   <si>
@@ -582,6 +630,9 @@
     <t>Room was clean and well stocked every day, but more importantly the people, especially Tishara and Luz were what made my stay special.  Everyone remembered my name and greeted me whenever they saw me.  Front desk help were attentive and willing to go the extra mile.More</t>
   </si>
   <si>
+    <t>drcody775</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d109047-r482053036-Courtyard_by_Marriott_Dallas_Las_Colinas-Irving_Texas.html</t>
   </si>
   <si>
@@ -606,6 +657,9 @@
     <t>We live in Southern AR but when we travel we use DFW rather than Little Rock as our departure city....We used to stay at the Marriott North until we discovered the Courtyard in Irving....This property is much quieter and the rooms are better arranged than the Marriott North property.....The staff are very attentive to your needs and greet you with a huge smile....The airport shuttle driver should receive a score of 10 plus....he's the best we've ever encountered.....More</t>
   </si>
   <si>
+    <t>M P</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d109047-r480859320-Courtyard_by_Marriott_Dallas_Las_Colinas-Irving_Texas.html</t>
   </si>
   <si>
@@ -630,6 +684,9 @@
     <t>First time at this location, recommend being a Marriott rewards member, I was very surprised at how quite inside and out this hotel was.  The noise of the city was almost completely mitigated.  The only problem was Sat. night with young teens going in and out of adjacent rooms.  Hotel staff addressed the families and it ended--thank-you.  Very friendly staff all weekend, enjoyed the stay and would consider seeking this hotel again even though we were in the city for a conference.More</t>
   </si>
   <si>
+    <t>Justgraymom2</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d109047-r479231065-Courtyard_by_Marriott_Dallas_Las_Colinas-Irving_Texas.html</t>
   </si>
   <si>
@@ -678,6 +735,9 @@
     <t>Our family stayed for one night so we could be at the airport really early the next day. We had been to Texas for vacation. The front desk personnel were helpful and friendly. The room was clean. We had two complaints about the room.  The bath tub didn't drain and that was really gross. We called the night we arrived but there wasn't anyone that could take care of it. I didn't take a shower the morning we left because I couldn't face the amount of water left after the previous shower. One of the electrical outlets didn't work either. Both were surprising for a Marriott property. Won't't be back.More</t>
   </si>
   <si>
+    <t>JST21</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d109047-r474358793-Courtyard_by_Marriott_Dallas_Las_Colinas-Irving_Texas.html</t>
   </si>
   <si>
@@ -702,6 +762,9 @@
     <t>Just what you would expect from a Marriott, nice clean, and big rooms. The location was close and convenient to shopping and great restaurants. The neighborhood was nice, we didn't have any issues with security.More</t>
   </si>
   <si>
+    <t>Scott M</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d109047-r462388440-Courtyard_by_Marriott_Dallas_Las_Colinas-Irving_Texas.html</t>
   </si>
   <si>
@@ -729,6 +792,9 @@
     <t>This Courtyard is where I fell in love with the Courtyard restaurant's egg white frittata. They serve Starbucks as well. Great round table areas with access to the news/monitors. Functional gym and amenities, and a great staff on hand. I would definitely recommend this location to my friends, family, and co-workers. Thank you for a great stay, guys! :-)More</t>
   </si>
   <si>
+    <t>duffus07</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d109047-r456468347-Courtyard_by_Marriott_Dallas_Las_Colinas-Irving_Texas.html</t>
   </si>
   <si>
@@ -753,6 +819,9 @@
     <t>Stayed twice in May 2016. Comfortable room but old property. One lift which is at the end of the hallway on the ground level. Staff were friendly and helpful. Had a package deal which included breakfast but the staff at the bistro didnt have it on their list. Reception sorted it by charging it to the room and it was deducted off. More</t>
   </si>
   <si>
+    <t>Rotel1026</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d109047-r447363851-Courtyard_by_Marriott_Dallas_Las_Colinas-Irving_Texas.html</t>
   </si>
   <si>
@@ -780,6 +849,9 @@
     <t>Room was clean, plenty of parking (I don't think the hotel was very full so not sure how much that would change if it was full), great location with lots of restaurants nearby as well as close to the airport and a DART station.  We were heading to a Mavs game and didn't want to deal with parking downtown so we chose this place due to location being close (about 3.5 miles) to the Irving Convention Center Station.  There was no hot water in the bathroom sink but we were out of the room most of the day and didn't find out about it til late (we got back from the Mavs game close to midnight) so we didn't call it in.  Otherwise, the little interaction I had with front desk staff was pleasant.  If you're looking for a hotel in what feels like a pretty safe neighborhood that's away from the hustle and bustle of the big city but close enough to have access to all of that, I would definitely recommend this place.More</t>
   </si>
   <si>
+    <t>Carolinablue26</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d109047-r440040571-Courtyard_by_Marriott_Dallas_Las_Colinas-Irving_Texas.html</t>
   </si>
   <si>
@@ -807,6 +879,9 @@
     <t>Room was clean and has the essentials. However not renovated and lacking the modern edge in the room. The lobby was the standard courtyard lobby. The building is shaped a bit odd. If you have a room number starting in zero it's almost below ground level. It's also a hike from the front desk. You have to almost drive around.More</t>
   </si>
   <si>
+    <t>Manager151Indigo</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d109047-r437946571-Courtyard_by_Marriott_Dallas_Las_Colinas-Irving_Texas.html</t>
   </si>
   <si>
@@ -831,6 +906,9 @@
     <t>I love Courtyards.  I dont have high expectations.  But I gotta tell ya this stay has been great.  Its the staff.  Being that I work in the hotel business I could tell right away the Front Desk Rep was new.  However, he was delightful, cared, and was composed.  Hats off my friend.  They obviously know how to train and care for new people.  The room was as clean as it could be.  Nothing I noticed wrong at all.  What really made the stay was Tashara in the little restaurant area.  She was a delight on the phone and had recommendations.  She told me she would call me when it was ready as they dont deliver...which I didnt expect them to.  She called while she was packing my to go order.  She was so hospitable when I got there.  She cooks, serves, bartends, and presents the food.  Really standout staffer.  Was so happy.  The fries were crispy and I got the BBQ flatbread.  Dont miss out.  Thank you Courtyard Dallas Las Colinas.  I still have another night.  Happy to be here.More</t>
   </si>
   <si>
+    <t>Brian F</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d109047-r435652460-Courtyard_by_Marriott_Dallas_Las_Colinas-Irving_Texas.html</t>
   </si>
   <si>
@@ -858,6 +936,9 @@
     <t>I've stayed here a couple of times over the last year for work and overall the hotel is fine.  I would say a little overpriced, my walls always seem dirty, the carpet a little thin in spots but it's fine.  I like that they have hot breakfast items, good way to start the day.  Location close to the airport and my client can't be beat (it's the reason I keep coming back) but I'm sure there are better options out there.  The floor/room layout seems awkward. I always am in the "back" of the hotel furthest from the lobby and have to navigate some odd back staircase every time.  Wi-Fi was a little spotty last time I was there which is unacceptable but again, overall, it's fine. Not great, but it works.More</t>
   </si>
   <si>
+    <t>Hawks4Ever</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d109047-r432125568-Courtyard_by_Marriott_Dallas_Las_Colinas-Irving_Texas.html</t>
   </si>
   <si>
@@ -882,6 +963,9 @@
     <t>I stayed here for two nights while in town for work. The front desk service was great but this hotel seems overpriced.The walls of my room were so thin that I could hear the person next door "using the bathroom" in the morning. Room was clean, all else fine. I just think that the pricing is high for what you get here. More</t>
   </si>
   <si>
+    <t>Travels317</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d109047-r431775551-Courtyard_by_Marriott_Dallas_Las_Colinas-Irving_Texas.html</t>
   </si>
   <si>
@@ -906,6 +990,9 @@
     <t>This was a very nice Courtyard with wonderful staff and a beautiful outdoor patio and comfortable seating to enjoy the outdoors.  All of the staff for more than accommodating for any requests I had for themMore</t>
   </si>
   <si>
+    <t>tpenney</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d109047-r425985688-Courtyard_by_Marriott_Dallas_Las_Colinas-Irving_Texas.html</t>
   </si>
   <si>
@@ -930,6 +1017,9 @@
     <t>No complimentary coffee (had to pay $4 for a coffee in the lobby).  No complimentary newspaper.  Few perks.  Awkward room and floor layout - took me forever to find our room on the lowest level.  Our room was very clean  though. Good Mediterranean restaurant across the road which was hardy during our business conference for a quick lunch More</t>
   </si>
   <si>
+    <t>LoislaneAthensAL</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d109047-r416553461-Courtyard_by_Marriott_Dallas_Las_Colinas-Irving_Texas.html</t>
   </si>
   <si>
@@ -957,6 +1047,9 @@
     <t>Visited Dallas area over the Labor Day weekend.  First time to stay at this hotel, but if I am ever in the Los Colinas area again, I will certainly stay here.  We had a King suite on the second floor overlooking the courtyard. Wonderful room with a separate bedroom and separate living room.  Both rooms are very spacious and also has a nice balcony. Living room has a mini-fridge in the bar and another in the desk area.  Also a mini-fridge in the bedroom, so we had a LOT of room for snacks and drinks.  Bar area in living room has a microwave and coffee maker. Real glasses and coffee cups, not paper. Room and bath were both clean and the Marriott bed is so comfortable.  Staff was nice and accommodating.More</t>
   </si>
   <si>
+    <t>dady8tor</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d109047-r415117866-Courtyard_by_Marriott_Dallas_Las_Colinas-Irving_Texas.html</t>
   </si>
   <si>
@@ -984,6 +1077,9 @@
     <t>I reviewed this hotel a few years ago and gave it an excellent rating.  There is nothing badly wrong with it now just down from a previous rating.  Service and check In remains excellent but  the rooms have aged and I had problems with adequate hot water and tun drained slow.  Would certainly stay here again if the rate was right, but would pick a fresher courtyard if all else was the same.More</t>
   </si>
   <si>
+    <t>Katherine P</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d109047-r408444585-Courtyard_by_Marriott_Dallas_Las_Colinas-Irving_Texas.html</t>
   </si>
   <si>
@@ -1011,12 +1107,18 @@
     <t>Rooms are clean and staff is very friendly.    Hotel is close to several restaurants in the Las Colinas area.   Hotel has ample parking.   Elevator is a bit noisy and shakes quite a bit, good thing I never got stuck in it although it sounds like it might break down soon.  I've stayed here several times as it is close to our office but rates really differ from week to week so had to go to other Marriott brands that are within our budgeted rate for work.  More</t>
   </si>
   <si>
+    <t>Vicki M</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d109047-r405836168-Courtyard_by_Marriott_Dallas_Las_Colinas-Irving_Texas.html</t>
   </si>
   <si>
     <t>405836168</t>
   </si>
   <si>
+    <t>Piper R</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d109047-r386648910-Courtyard_by_Marriott_Dallas_Las_Colinas-Irving_Texas.html</t>
   </si>
   <si>
@@ -1044,6 +1146,9 @@
     <t>This hotel is very comfortable and accommodating. There were several rooms rented for our group, and the desk clerk worked with us to get us on the same floor, with one room opening to the pool. We spent a lot of time in the beautiful pool area. Very enjoyable weekend for all of us, from age 2 to 64!More</t>
   </si>
   <si>
+    <t>bill555555</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d109047-r385873545-Courtyard_by_Marriott_Dallas_Las_Colinas-Irving_Texas.html</t>
   </si>
   <si>
@@ -1065,6 +1170,9 @@
     <t>Stayed here for 4 days...great location.   Has a great bistro with 24 hour Starbucks.  Conveniently located in the Dallas area.  Room rates very competitive.  My room was very clean and huge.  Easy and ample parking.  More</t>
   </si>
   <si>
+    <t>Matthew B</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d109047-r382757600-Courtyard_by_Marriott_Dallas_Las_Colinas-Irving_Texas.html</t>
   </si>
   <si>
@@ -1087,6 +1195,9 @@
   </si>
   <si>
     <t>This hotel is very clean and well appointed. The area around it has a handful of eating options and is very walkable. The staff is warm and friendly. It is worth noting that my aunt and uncle were awakened early by a housekeeper who was trying to figure out a new system. This individual opened their door but, from what I have gathered, was very apologetic.More</t>
+  </si>
+  <si>
+    <t>6530bx4</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d109047-r381845951-Courtyard_by_Marriott_Dallas_Las_Colinas-Irving_Texas.html</t>
@@ -1115,6 +1226,9 @@
 When I checked in there were disturbances outside the hotel.  For some reason the police were also here the next day.  The staff seemed unconcerned about the ruckus, even when I called it to their attention.  The first room had a smoky smell.  Got a second room far, far away (think like a two block walk). And then the keys didn't work.  Despite carrying bags the desk clerk suggested taking the stairs because the *only* elevator in the hotel is inconveniently tucked away nowhere near the lobby or most of the rooms at one extreme of the building (a sprawling four story hotel).  One elevator???? Never saw that at any Courtyard, especially the older ones that would have at least one on each side.  Room could have been cleaner.  Electrical outlets were in such bad shape that I had trouble recharging phone and laptop.  No microwave and the refrigerator was so bad that after two days my soda inside is barely cold. This place is not for any handicapped person or a senior or anyone with any mobility issue.  Most of the entrances have significant stairs and no ramps (in addition to the horribly inconvenient sole elevator).  Shower was impotent....The signature piece about Courtyards was a hotel for business travelers designed by business travelers and that the best surprise was no surprise.  This is simply ignored in this aging hotel in need of better management and some significant refurbishing.When I checked in there were disturbances outside the hotel.  For some reason the police were also here the next day.  The staff seemed unconcerned about the ruckus, even when I called it to their attention.  The first room had a smoky smell.  Got a second room far, far away (think like a two block walk). And then the keys didn't work.  Despite carrying bags the desk clerk suggested taking the stairs because the *only* elevator in the hotel is inconveniently tucked away nowhere near the lobby or most of the rooms at one extreme of the building (a sprawling four story hotel).  One elevator???? Never saw that at any Courtyard, especially the older ones that would have at least one on each side.  Room could have been cleaner.  Electrical outlets were in such bad shape that I had trouble recharging phone and laptop.  No microwave and the refrigerator was so bad that after two days my soda inside is barely cold. This place is not for any handicapped person or a senior or anyone with any mobility issue.  Most of the entrances have significant stairs and no ramps (in addition to the horribly inconvenient sole elevator).  Shower was impotent.  WiFi a little spotty and it was using cookies and privacy invading tracking software (Superclick). Vandalism and damage unprepared in some spots -- wallpaper coming off walls in hallway, for example.  This place suffers from a serious lack of pride from the people owning and running it.  They did some remodeling but they definitely should have added an elevator or two.  The attitude also was less than inviting.  Marriott should really consider whether it wants to continue this place in their brand.  It would make a great Motel 6 or Super 8 but falls far short of what you would expect from a Courtyard.  I would not recommend anyone going out of their way to stay here.More</t>
   </si>
   <si>
+    <t>rod_cstl</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d109047-r380350031-Courtyard_by_Marriott_Dallas_Las_Colinas-Irving_Texas.html</t>
   </si>
   <si>
@@ -1139,6 +1253,9 @@
     <t>The front desk didn't thank me for being a Rewards Member at check-in. That is a bit unusual. She wasn't very personable either. Not rude; but, not really friendly or very welcoming. Didn't give me the whole usual spill about the property. It was pretty much, "here's your key and room number". Not that limited small talk is a bad thing; but if a person likes a chatty check-in, this was isn't it.  That was the extent of my contact with any front desk personnel.The room was okay. Nothing immaculate. The property would be a nice place to stay with the patios for each room. The elevator was out of service this weekend; and, I'm not sure what was going on with the bathroom light in the room. It went off while I was in the shower and then came back on a few minutes later. After that, it seemed to have a mind of its own (maybe like the wiring was crossed with some other room's light switch???). We were only here for an overnight stay after the Kenny Chesney concert. We weren't at the hotel long enough to review the pool and other amenities. It does seem like it would be a good place to stay if everything worked.Price was good. That's a plus.More</t>
   </si>
   <si>
+    <t>Michelle P</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d109047-r377921348-Courtyard_by_Marriott_Dallas_Las_Colinas-Irving_Texas.html</t>
   </si>
   <si>
@@ -1157,6 +1274,9 @@
     <t>When you drive up to this hotel it looks small but it's not.  The atmosphere is nice. Rooms are nice but I do agree with a previous review that the bathroom is a little awkward with the toilet right next to the door.  Kiddos liked the pool being  inside and outside but wished there was a hot tub.  Coffee in room is a bit weak but I guess that's to sell coffee out of the Bistro. Bistro was good.  A bit overpriced but yummy and the staff was very nice. More</t>
   </si>
   <si>
+    <t>Paul O</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d109047-r377432928-Courtyard_by_Marriott_Dallas_Las_Colinas-Irving_Texas.html</t>
   </si>
   <si>
@@ -1184,6 +1304,9 @@
     <t>Overall a good stay, some very good staff especially Meloady a fantastic credit To the hotel we had a problem and I can only say her professional attitude saved the day.i won't say it is one of the best hotels but it was comfortable, except for the beds. 1. Advertised as king size beds but we're only doubles.2. They were very soft if you have a bad back like me not good.For a stop over great for business great for a longer stay possible could do better. Some rooms could do with a but of brightening up.Would I stay again ..... YesMore</t>
   </si>
   <si>
+    <t>Wade W</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d109047-r373103744-Courtyard_by_Marriott_Dallas_Las_Colinas-Irving_Texas.html</t>
   </si>
   <si>
@@ -1211,6 +1334,9 @@
     <t>Stayed for 2 nights before a Cowboys game (took an Uber from hotel-20$), and very satisfied with the hotel. Nothing special but definitely did the job. Rooms were spacious and not a thing to complain about. Would recommend to anyone that has an event or occasion in the area. More</t>
   </si>
   <si>
+    <t>ACuriousTongue</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d109047-r368994561-Courtyard_by_Marriott_Dallas_Las_Colinas-Irving_Texas.html</t>
   </si>
   <si>
@@ -1235,6 +1361,9 @@
     <t>Courtyards have become more cookie cutter as time has gone on.  This isn't a bad thing; you know what to expect- surprisingly decent food in the bistro, the availability of adult beverages in the evenings, comfortable rooms and friendly staff.  The Las Colinas Courtyard embodies all of these characteristics.  it is a nice, clean hotel with decent amenities and a nice place to rest your head after a long day.More</t>
   </si>
   <si>
+    <t>PinkPower2005</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d109047-r365710037-Courtyard_by_Marriott_Dallas_Las_Colinas-Irving_Texas.html</t>
   </si>
   <si>
@@ -1262,6 +1391,9 @@
     <t>Perfect location to the Irving convention center for the comic con we were attending! We weren't really in the room much but from the times we were in there, it was more than perfect for us. Beds were super comfy, just enough space for us without feeling overcrowded. They had a small cafe but we unfortunately did not get to try any of their menu. The room was nice and quiet with no other distractions, so it was great! Will definitely be back when we're in Irving :)More</t>
   </si>
   <si>
+    <t>Christopher M</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d109047-r365135206-Courtyard_by_Marriott_Dallas_Las_Colinas-Irving_Texas.html</t>
   </si>
   <si>
@@ -1286,6 +1418,9 @@
     <t>I flew in to Love Field, had a colleague flying in to DFW, had dinner in downtown Dallas, and business in Farmer's Branch, and this location just seemed to be centrally located to everything.  VERY friendly and attentive staff.  My room was fine other than the noisy neighbors, but that certainly isn't the hotel's fault.Typical Courtyard experience in a very convenient location.More</t>
   </si>
   <si>
+    <t>Miznikki2u</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d109047-r363214422-Courtyard_by_Marriott_Dallas_Las_Colinas-Irving_Texas.html</t>
   </si>
   <si>
@@ -1313,6 +1448,9 @@
     <t>After almost 17 hrs of driving from NC to Dallas TX for Wrestlemania 32, this hotel was a pleasure to finally reach.  We were greeted by a wonderful front desk receptionist, who checked us in with ease.  Our stay was wonderful, the staff was wonderful, the beds were so comfortable, I really did not want to get out of bed.  The best part of this hotel was the Starbucks, although they would not except my Starbucks gift card, and they were very limited on the drinks they offered, I was still able to find a favorite drink for every morning. This hotel was very clean, and there are lots of resturant and stores within walking distance.  The location is wonderful.  Hopefully we will be back soon.  Thanks for making our weekend superb.More</t>
   </si>
   <si>
+    <t>Barry W</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d109047-r360772024-Courtyard_by_Marriott_Dallas_Las_Colinas-Irving_Texas.html</t>
   </si>
   <si>
@@ -1337,6 +1475,9 @@
     <t>Spent the night at Courtyard Marriott in Las Colinas. Small bar/bistro. No room service. No movie rentals. And no room service. No bell hop service. And housekeeping starting knocking at 8:45 am.Beds and pillows were comfy.More</t>
   </si>
   <si>
+    <t>gerialexander</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d109047-r360421538-Courtyard_by_Marriott_Dallas_Las_Colinas-Irving_Texas.html</t>
   </si>
   <si>
@@ -1355,6 +1496,9 @@
     <t>This was a really nice hotel.  The location was near several places to eat.  Property was well maintained, clean, and everyone was super friendly. I was going to give it 4 stars, because I wish there had at least been a complimentary continental breakfast or something more suitable for a child to eat.  They also played the music in the lobby fairly loud.  I was visiting to meet a friend from out of town, and she came to the hotel for coffee and chatting, but it was hard to hear over the lobby music.  BUT, that's the most I had to complain about, so five stars it is!  There are nice seating areas to just hang out, and they even had a nice collection of books to peruse if you just wanted to get out of your room.  Warm outdoor fire pit, and the food and Starbucks was great.  Indoor pool had A LOT of seating room and tables in case you wanted to have a snack inside.  It is attached to the outdoor pool, so the water was still really chilly.  Not for sure if it was supposed to be heated or not.  We'd definitely stay there again!More</t>
   </si>
   <si>
+    <t>Coachf72</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d109047-r353068521-Courtyard_by_Marriott_Dallas_Las_Colinas-Irving_Texas.html</t>
   </si>
   <si>
@@ -1370,6 +1514,9 @@
     <t xml:space="preserve">Nice place. Love the location. Staff very friendly. Place was very clean. Room was spacious and very clean. Nice LG tv in the room and in room coffee provided. Our room walked out to the pool. Very nice. Will come back in the summer for that. Overall, a nice Marriott property and will stay again for sure. </t>
   </si>
   <si>
+    <t>tqmman2002</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d109047-r353064752-Courtyard_by_Marriott_Dallas_Las_Colinas-Irving_Texas.html</t>
   </si>
   <si>
@@ -1391,6 +1538,9 @@
     <t>Modernized courtyard with bar/food service, very friendly reception upon our arrival. Easy access to shops and restaurants. Did not use pool or other facilities but seemed clean. Rooms were great, quiet and clean.Enjoyed staying here, and will go back again.More</t>
   </si>
   <si>
+    <t>dysphorichousewife</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d109047-r349527803-Courtyard_by_Marriott_Dallas_Las_Colinas-Irving_Texas.html</t>
   </si>
   <si>
@@ -1415,6 +1565,9 @@
     <t>The service at this Courtyard is outstanding - every member of the staff was happy and helpful.  I stayed here for one night while traveling for business.  The hotel is located in a business district close to DFW airport.  There are many chain restaurants in the area with a bank and drugstore right down the street.  My king room was very nice and I enjoyed having a balcony with a sliding door/screen to let in the fresh air.  The hotel serves the Courtyard breakfast and dinner and my meals were very well prepared.  As others have noted, this hotel has an indoor/outdoor pool.  They also had a nice fire going in a fire pit in the evening.  I will stay again and recommend this hotel to others.More</t>
   </si>
   <si>
+    <t>Mike R</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d109047-r349279321-Courtyard_by_Marriott_Dallas_Las_Colinas-Irving_Texas.html</t>
   </si>
   <si>
@@ -1433,6 +1586,9 @@
     <t>I really like these older style Courtyard hotels that have an actual courtyard in the middle that is peaceful, rather than the newer ones where Courtyard is just the name there there is no courtyard and no balcony.  Everything was excellent from the room upgrade to the very comfortable bed to the balcony with the screen door which I like to keep open.  The staff was very friendly and accommodating in every way.The only disappointment was that they seem to have removed the whirlpool spa which I really looked forward to since I enjoyed it so much on my last visit here.It was still an enjoyable stay and far above average.More</t>
   </si>
   <si>
+    <t>270francisp</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d109047-r346251914-Courtyard_by_Marriott_Dallas_Las_Colinas-Irving_Texas.html</t>
   </si>
   <si>
@@ -1457,6 +1613,9 @@
     <t>The Staff was tremendous and really went out of their way to explain the tricky layout of the hotel. My stay was with a youth hockey team and they handled the kids with the same respect as an adult. The price was very reasonable. The lobby had plenty of room and the Bistro satisfied our late night needs. Overall, an enjoyable stay due to the staff, large comfortable room and price. The layout can be a bit confusing but we all managed just fine.More</t>
   </si>
   <si>
+    <t>thedeal4</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d109047-r341025588-Courtyard_by_Marriott_Dallas_Las_Colinas-Irving_Texas.html</t>
   </si>
   <si>
@@ -1484,6 +1643,9 @@
     <t>We got this hotel for a great price so I wont complain too much. The way this hotel is set up is horrible. We were in a portion of the hotel that seemed to not be connected to the lobby, fitness room or the pool. To get to the lobby, fitness room and pool we had to go outside, walk around from the back of the hotel to the front and go through the lobby. The service is just ok. We called the lobby the morning of check out serveral times to see about getting a late check out and noone every answered the phone.More</t>
   </si>
   <si>
+    <t>Deborah G</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d109047-r340115507-Courtyard_by_Marriott_Dallas_Las_Colinas-Irving_Texas.html</t>
   </si>
   <si>
@@ -1511,6 +1673,9 @@
     <t>We were looking for something inexpensive yet reliably clean for our trip to the Cotton Bowl game. We found it at this courtyard as I knew we would The staff was friendly. Room was ready upon our arrival for early check in. This hotel is in a business district so I would not recommend it for travel when you are looking to be part of the downtown festivities. The taxi cost to Dallas from this hotel is around $40 per trip. So we easily added $80 one day to our cost. I stayed here cause my brother and his family were also staying in a nearby hotel. Otherwise, I would have stayed in downtown Dallas.If you need a clean, quiet place to stay then I would recommend this hotel. I've never been to a courtyard that wasn't clean and friendly. To get to most anything, you have to drive from this hotel. Upside, only 20 minutes to the airport when you have an early morning flight. That is a major bonus.More</t>
   </si>
   <si>
+    <t>No1RN</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d109047-r267459783-Courtyard_by_Marriott_Dallas_Las_Colinas-Irving_Texas.html</t>
   </si>
   <si>
@@ -1538,6 +1703,9 @@
     <t>veey, very welcoming checkin after a long day of travel. Homer was extremely professional and attentive. I opted out of housekeeping for extra rewards points, but room was well stocked and very clean on my arrival. They have food for purchase at a nice bar, as well as alcoholic drinks until 10pm. There is no free breakfast, but you can enjoy your favorite Starbucks drinks. There is no microwave in the room, but Homer offered to bring one to the room. They have a microwave for use near the pantry where there are snack foods and microwave meals for purchase. Room had a refrigerator, coffee, and Paul Mitchell toiletries. I had forgotten my toothbrush, but Homer provided one for me. The swimming pool was clean and inviting, and the gym was adequate for cardio workouts. Overall, I will stay again. Cab ride from DFW is about $25, and the staff is happy to make arrangements for taxi/shuttle service once you are there.  They do have a shuttle around town, but the hours are limited.More</t>
   </si>
   <si>
+    <t>Cody D</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d109047-r264724600-Courtyard_by_Marriott_Dallas_Las_Colinas-Irving_Texas.html</t>
   </si>
   <si>
@@ -1562,6 +1730,9 @@
     <t>I currently stayed at this hotel on business travel and was extremely amazed by the quality of customer service and accommodations. Highly recommend! Great atmosphere at the bar area! Breakfast was great also...Brittany and Reily are GREAT!More</t>
   </si>
   <si>
+    <t>Estrashusband</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d109047-r262980889-Courtyard_by_Marriott_Dallas_Las_Colinas-Irving_Texas.html</t>
   </si>
   <si>
@@ -1589,6 +1760,9 @@
     <t>It was a nice hotel for the money. I had business in Irving and it was perfectly fine. It's clean well located with nice people and a good lobby to sit and have a drink with someone. I recommend it for anyone who is not a high maintenance personMore</t>
   </si>
   <si>
+    <t>Mark F</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d109047-r261798138-Courtyard_by_Marriott_Dallas_Las_Colinas-Irving_Texas.html</t>
   </si>
   <si>
@@ -1613,6 +1787,9 @@
     <t>The hotel is a bit dated but the value for the area isnt bad.  A musty smell permiated te lower floors of the building.   The staff was friendly and was very accomodating.  Ultimately, I think there are some better options in the area.More</t>
   </si>
   <si>
+    <t>HarveyAs</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d109047-r261698299-Courtyard_by_Marriott_Dallas_Las_Colinas-Irving_Texas.html</t>
   </si>
   <si>
@@ -1634,6 +1811,9 @@
     <t>We loved the hotel. The staff was great. The room was massive. We had a great view of the lake. Someone got us the room with points so I did not know the cost. I would go there again. The Dart train to the center of Dallas was in walking distance but a long walk.More</t>
   </si>
   <si>
+    <t>Adam S</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d109047-r261345715-Courtyard_by_Marriott_Dallas_Las_Colinas-Irving_Texas.html</t>
   </si>
   <si>
@@ -1658,6 +1838,9 @@
     <t>Great visit! Beautiful hotel! Had a great stay and really enjoyed the weather. Staff is very friendly and the breakfast is very convenient in the morning. Can't wait to go back and get out of Chicago again.More</t>
   </si>
   <si>
+    <t>Jenniefromthe603</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d109047-r260430636-Courtyard_by_Marriott_Dallas_Las_Colinas-Irving_Texas.html</t>
   </si>
   <si>
@@ -1682,6 +1865,9 @@
     <t>I really enjoyed my stay at this hotel.  The beds were so comfortable. The staff was so nice.  I really enjoyed the pilot where you can get points for not using housekeeping.  As an avid traveler who spends a lot of time in hotels I generally don't need houskeeping each day.  To get a reward for that is amazing!More</t>
   </si>
   <si>
+    <t>AvidTraveler2013</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d109047-r260428646-Courtyard_by_Marriott_Dallas_Las_Colinas-Irving_Texas.html</t>
   </si>
   <si>
@@ -1697,6 +1883,9 @@
     <t>Flawless check in and stay, lobby and rooms were clean and efficient.  Received a "scratch off" ticket and won some extra Marriott reward points which was a nice little perk.  We enjoyed breakfast at the lobby cafe which also serves Starbucks coffee.  We also used the shuttle to surrounding area which was great.  They have a cute outside patio with tables and a firepit to enjoy.  Overall great stay!More</t>
   </si>
   <si>
+    <t>Jimski12</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d109047-r260055339-Courtyard_by_Marriott_Dallas_Las_Colinas-Irving_Texas.html</t>
   </si>
   <si>
@@ -1721,6 +1910,9 @@
     <t>I frequent the Dallas area for business and have stayed at several hotels in the area.  This location is my preference.  The staff are friendly and hospitable, the property is well taken care of and is in a quiet area.More</t>
   </si>
   <si>
+    <t>bmoore2</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d109047-r259841172-Courtyard_by_Marriott_Dallas_Las_Colinas-Irving_Texas.html</t>
   </si>
   <si>
@@ -1739,6 +1931,9 @@
     <t>Nice hotel. A little dated but well maintained and clean which is to be expected at Marriott. Convenient location for business, restaurants and DFW. I've come to expect a mini refrigerator at most hotels but this did not have one, although there was a spot for it.More</t>
   </si>
   <si>
+    <t>C-ingNewPlaces</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d109047-r242186969-Courtyard_by_Marriott_Dallas_Las_Colinas-Irving_Texas.html</t>
   </si>
   <si>
@@ -1766,6 +1961,9 @@
     <t>I've stayed at nicer Marriotts before, but my expectations were met. Everything was clean and the staff was friendly. Nothing particularly special about the hotel but was a nice place to stay on business. Comfortable bed.More</t>
   </si>
   <si>
+    <t>MokoPeoria_IL</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d109047-r242009936-Courtyard_by_Marriott_Dallas_Las_Colinas-Irving_Texas.html</t>
   </si>
   <si>
@@ -1793,6 +1991,9 @@
     <t>We had not planned on staying in Dallas but our flight home was cancelled and we had to find a place to spend the night.  This hotel is on the board in the airport advertising nearby hotels to DFW.  We called very many hotels and were disappointed that no one offered reasonable rates to stranded travelers.  The airport hotel was two times the rate of this Marriott Courtyard.  A great perk was a free shuttle and both drivers were friendly and very courteous.  We checked in a king size room at the rate of $136...we felt this was a bargain compared to our other options.  The lobby area has been remodeled recently and offers multiple TVs, some in the dining area booths.  WIFI is free. There wasn't much selection for dinner but breakfast was ample, although at an extra charge.  I would suggest booking the breakfast included rate.  Check out was not until 1 pm which was an added bonus while we waited for our late afternoon flight.  The receptionist  arranged the shuttle to the airport and we felt that we were lucky to find this place.  It is in the middle of an industrial park, so there is nothing to walk to or close by if you do not have a car.  We were just thankful to have a bed and a good night's sleep.  If you are stranded at DFW, this is a good choice.More</t>
   </si>
   <si>
+    <t>Acher84</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d109047-r241993435-Courtyard_by_Marriott_Dallas_Las_Colinas-Irving_Texas.html</t>
   </si>
   <si>
@@ -1808,6 +2009,9 @@
     <t>This hotel was a lifesaver! We initially booked a horrific hotel and had to find a new place to stay ASAP. We called Courtyard and they had 2 rooms for us same day at a very reasonable price. Clean rooms, exceptional staff and a business center to print out your boarding passes prior to heading to the airport. Thanks for saving the day!More</t>
   </si>
   <si>
+    <t>Tom Z</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d109047-r241395015-Courtyard_by_Marriott_Dallas_Las_Colinas-Irving_Texas.html</t>
   </si>
   <si>
@@ -1832,6 +2036,9 @@
     <t>charged full price when cancelled 4 days b4 arrival. Booked through southwest n learned the fine print allows cancel 1 day after booking. Are you kidding me?Never book on sw or stay at Marriott again.More</t>
   </si>
   <si>
+    <t>Sandra661</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d109047-r237890668-Courtyard_by_Marriott_Dallas_Las_Colinas-Irving_Texas.html</t>
   </si>
   <si>
@@ -1859,6 +2066,9 @@
     <t>Great location! Clean rooms. Love the outdoor area! This hotel was easy to find. Would certainly stay here again. Found a good price on Hotels.Com.Located near places to eat. Not too far from Grapevine Mall.More</t>
   </si>
   <si>
+    <t>johnfi</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d109047-r236129955-Courtyard_by_Marriott_Dallas_Las_Colinas-Irving_Texas.html</t>
   </si>
   <si>
@@ -1883,6 +2093,9 @@
     <t>Hotel is close to many of the office parks in the Las Colinas and Irving area, restaurants and stores within minutes and a short drive to DFW and not a bad drive to Dallas if needed.  Hotel is very clean in public areas and the rooms.  Staff was friendly and helpful.  Newer Courtyard lobby and café for onsite food options.  Room was good size, clean, well maintained, good A/C in the TX heat/humidity and very comfortable bed. I’ll be back next time when visiting the area.More</t>
   </si>
   <si>
+    <t>tandmgroup</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d109047-r232732767-Courtyard_by_Marriott_Dallas_Las_Colinas-Irving_Texas.html</t>
   </si>
   <si>
@@ -1907,6 +2120,9 @@
     <t>Came in late at night with a layover until morning. Very friendly staff, Wendy was awesome. Shuttle service was quick and efficient. Definitely stay here again for an airport stay!. Clean rooms, comfortable beds!More</t>
   </si>
   <si>
+    <t>Sandi H</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d109047-r229127956-Courtyard_by_Marriott_Dallas_Las_Colinas-Irving_Texas.html</t>
   </si>
   <si>
@@ -1934,6 +2150,9 @@
     <t>I booked 2 rooms through Priceline.com  -  5 adults, 3 children.  I requested a refrigerator in one room for my grandsons medication via email.   Which, is a good thing, because, I received an email back from the hotel rep that our reservation was not in their system.  I made a call to priceline and it was worked out in a very short amount of time.  We spent the day at Six Flags and checked in after 9pm.  The desk clerk was super nice and gave us connecting rooms (AWESOME).  We had refrigerator in both rooms - which worked out great for the meds and milk for our granddaughter staying in our room!  The rooms were clean and comfortable (the beds are FANTASTIC).  We would have totally enjoyed the fire pit on the patio if we hadn't been so exhausted from our day at Six Flags!  The only complaint I have is because it's a little difficult to find following GPS  directions.  I would absolutely book this hotel again ..  with or without Priceline!More</t>
   </si>
   <si>
+    <t>Ashley G</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d109047-r229018180-Courtyard_by_Marriott_Dallas_Las_Colinas-Irving_Texas.html</t>
   </si>
   <si>
@@ -1943,6 +2162,9 @@
     <t>September 15, 2014</t>
   </si>
   <si>
+    <t>lovely0826</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d109047-r227219197-Courtyard_by_Marriott_Dallas_Las_Colinas-Irving_Texas.html</t>
   </si>
   <si>
@@ -1970,6 +2192,9 @@
     <t>Enjoyed my stay with family of 5 people. Hotel is Clean, nice lobby, great location, close to downtown Dallas as Im showing my family JFK museum and Dallas museum of art. I wish breakfast was included in my stayMore</t>
   </si>
   <si>
+    <t>Bhavit D</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d109047-r211269725-Courtyard_by_Marriott_Dallas_Las_Colinas-Irving_Texas.html</t>
   </si>
   <si>
@@ -1997,6 +2222,9 @@
     <t>While the whole idea of a courtyard by Marriott is to have a familiar feel no matter what city you are in, this is one of the more friendlier courtyard I have been at.  The staff is great, especially the cafe staff.  Always cheerful and helpful in the morning.The rooms, especially in the lower level (dungeon), are a bit weird but overall a good hotel.  Only problems I have with the Courtyard is there are no benefits for Gold or Platinum members at this Marriott brand but that i not unique to this location but a flaw in the Marriott program.More</t>
   </si>
   <si>
+    <t>Amanda J</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d109047-r207698699-Courtyard_by_Marriott_Dallas_Las_Colinas-Irving_Texas.html</t>
   </si>
   <si>
@@ -2021,6 +2249,9 @@
     <t>Great stay at this hotel. Stayed for 3 nights. WELL worth what we paid. The front staff was so friendly. Our room was a little far from the front lobby, but hey, thats just nit-picking. The room was clean, air worked great, it was just a good, normal stay. The courtyard in the middle looked nice, we never got a chance to enjoy it, but each night the fire pits were lit with several people relaxing and mingling outside. The pool also looked very clean, it was always empty though. I would definitely recommend this hotel if you arent looking for a resort but just a clean, quiet stay.More</t>
   </si>
   <si>
+    <t>Vacationer9898</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d109047-r205703453-Courtyard_by_Marriott_Dallas_Las_Colinas-Irving_Texas.html</t>
   </si>
   <si>
@@ -2045,6 +2276,9 @@
     <t>Average hotel in a nice area of town.  Lobby is nice and has been recently remodeled.  It is an older courtyard but everything is clean and functioning.  Employees very professional and helpful. The pool is indoor outdoor. Balcony was a nice touch and the room was very quiet and the bed was amazingly comfortable.More</t>
   </si>
   <si>
+    <t>cmonstermix</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d109047-r205394149-Courtyard_by_Marriott_Dallas_Las_Colinas-Irving_Texas.html</t>
   </si>
   <si>
@@ -2069,6 +2303,9 @@
     <t>I've stayed at this hotel twice now while in town for business and have found the location to be a perfect distance from the airports and the major business hubs.  The hotel's lobby and restaurant served my immediate needs very well, particularly breakfast.  The grounds, lobby, and rooms were all clean and made for a nice hotel for the business traveler.  I did not swim in the pool, but it looks very nice.  I also did not see a lot of kids - anywhere.  Must not have been vacation time!More</t>
   </si>
   <si>
+    <t>Bucky732</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d109047-r201987427-Courtyard_by_Marriott_Dallas_Las_Colinas-Irving_Texas.html</t>
   </si>
   <si>
@@ -2096,6 +2333,9 @@
     <t>Very nice hotel.  Workout room is very nice, courtyard and lobby friendly and inviting.  Service decent and room spacious and comfortable.  I like the separate table on wheels that allow you to convert the desk into an L shaped workstation.  Water with fruit chilled in the lobby is nice after a workout.  Very close to many very nice restaurants.More</t>
   </si>
   <si>
+    <t>sher808</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d109047-r186120033-Courtyard_by_Marriott_Dallas_Las_Colinas-Irving_Texas.html</t>
   </si>
   <si>
@@ -2112,6 +2352,9 @@
   </si>
   <si>
     <t>November 2013</t>
+  </si>
+  <si>
+    <t>LynninNM</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d109047-r181515071-Courtyard_by_Marriott_Dallas_Las_Colinas-Irving_Texas.html</t>
@@ -2135,6 +2378,9 @@
   <si>
     <t>We just were there this past Wednesday and Thursday.  Our room, with a king bed, was very nicely appointed. The night stands on either side of the bed had the most practical, ingenious lamps I've ever seen. Good reading-task lamps are a huge must for a comfortable stay, in my opinion. These were the best. Take a look at the photos of them below. A switch for the main lamp, plus two separate reading lights and a nightlight, as well. And, they're actually very attractive! The room itself was very clean  . . .  and I check thoroughly. The bed was very comfortable. Thankfully, they don't use bedspreads, but rather quality white sheets and blankets that are obviously laundered after each guest.  Very user friendly desk with lamp and comfortable chair. Armoire held a nice-sized tv that worked great. One big complaint, though, was that the room's information binder said that there was pay per view movies available.  After 20 minutes trying to get this to work, we called downstairs, only to be told, "Oh, we're sorry but that has been discontinued."  
 We ate lunch in their lobby bar area and had very tasty burgers. Another mild gripe is that their miniscule gift shop sells only hardback books! i don't know about you but the last thing I want to buy on a trip is a heavy, expensive hardback book I'll then have to lug Round and have to fit...We just were there this past Wednesday and Thursday.  Our room, with a king bed, was very nicely appointed. The night stands on either side of the bed had the most practical, ingenious lamps I've ever seen. Good reading-task lamps are a huge must for a comfortable stay, in my opinion. These were the best. Take a look at the photos of them below. A switch for the main lamp, plus two separate reading lights and a nightlight, as well. And, they're actually very attractive! The room itself was very clean  . . .  and I check thoroughly. The bed was very comfortable. Thankfully, they don't use bedspreads, but rather quality white sheets and blankets that are obviously laundered after each guest.  Very user friendly desk with lamp and comfortable chair. Armoire held a nice-sized tv that worked great. One big complaint, though, was that the room's information binder said that there was pay per view movies available.  After 20 minutes trying to get this to work, we called downstairs, only to be told, "Oh, we're sorry but that has been discontinued."  We ate lunch in their lobby bar area and had very tasty burgers. Another mild gripe is that their miniscule gift shop sells only hardback books! i don't know about you but the last thing I want to buy on a trip is a heavy, expensive hardback book I'll then have to lug Round and have to fit into my baggage! That evening we had dinner in their restaurant. Their hostess was wonderful,  very prompt and welcoming. Our dinners were delicious, but our waiter was extremely slow and    inattentive. In fact he was so slow that 3 other tables were seated after us and all three not only received their dinners before us, but ate them and left before ours even arrived! No apology. No explanation. By the way, their handmade pizzas are wonderful, but their Shrimp Cocktail is very overpriced for the  4 shrimp you get. That night I put out their room service card for breakfast the next morning. It arrived right on time, hot and delicious (I ordered their Egg White Frittata with various veggies. I also need to mention their coffee. Coffee is something I drink black with no sugar. One cup with breakfast is my usual. To me it tastes blah to drink on its own. But the coffee that arrived from the restaurant (not the packets of instant in the room) was the most delicious coffee I've ever had anywhere! I drank the entire pot! Later, mentioning this to one of the day managers, Adam, this guy was so thoughtful that he gave me the name of it...More</t>
+  </si>
+  <si>
+    <t>bernylloyd</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d109047-r176161289-Courtyard_by_Marriott_Dallas_Las_Colinas-Irving_Texas.html</t>
@@ -2663,43 +2909,47 @@
       <c r="A2" t="n">
         <v>20384</v>
       </c>
-      <c r="B2" t="s"/>
-      <c r="C2" t="s"/>
+      <c r="B2" t="n">
+        <v>126908</v>
+      </c>
+      <c r="C2" t="s">
+        <v>44</v>
+      </c>
       <c r="D2" t="n">
         <v>1</v>
       </c>
       <c r="E2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="L2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="M2" t="n">
         <v>5</v>
       </c>
       <c r="N2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="O2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P2" t="n">
         <v>5</v>
@@ -2717,56 +2967,60 @@
         <v>0</v>
       </c>
       <c r="W2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="X2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="Y2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
         <v>20384</v>
       </c>
-      <c r="B3" t="s"/>
-      <c r="C3" t="s"/>
+      <c r="B3" t="n">
+        <v>126909</v>
+      </c>
+      <c r="C3" t="s">
+        <v>58</v>
+      </c>
       <c r="D3" t="n">
         <v>2</v>
       </c>
       <c r="E3" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F3" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="G3" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H3" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I3" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="J3" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="K3" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="L3" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="M3" t="n">
         <v>1</v>
       </c>
       <c r="N3" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="O3" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P3" t="s"/>
       <c r="Q3" t="s"/>
@@ -2778,56 +3032,60 @@
         <v>0</v>
       </c>
       <c r="W3" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="X3" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="Y3" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
         <v>20384</v>
       </c>
-      <c r="B4" t="s"/>
-      <c r="C4" t="s"/>
+      <c r="B4" t="n">
+        <v>126910</v>
+      </c>
+      <c r="C4" t="s">
+        <v>68</v>
+      </c>
       <c r="D4" t="n">
         <v>3</v>
       </c>
       <c r="E4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F4" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="G4" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H4" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I4" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="J4" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="K4" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="L4" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="M4" t="n">
         <v>5</v>
       </c>
       <c r="N4" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="O4" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="P4" t="s"/>
       <c r="Q4" t="s"/>
@@ -2839,56 +3097,60 @@
         <v>0</v>
       </c>
       <c r="W4" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="X4" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="Y4" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
         <v>20384</v>
       </c>
-      <c r="B5" t="s"/>
-      <c r="C5" t="s"/>
+      <c r="B5" t="n">
+        <v>126911</v>
+      </c>
+      <c r="C5" t="s">
+        <v>78</v>
+      </c>
       <c r="D5" t="n">
         <v>4</v>
       </c>
       <c r="E5" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F5" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="G5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H5" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I5" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="J5" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="K5" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="L5" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="M5" t="n">
         <v>3</v>
       </c>
       <c r="N5" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="O5" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P5" t="s"/>
       <c r="Q5" t="s"/>
@@ -2904,56 +3166,60 @@
         <v>0</v>
       </c>
       <c r="W5" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="X5" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="Y5" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
         <v>20384</v>
       </c>
-      <c r="B6" t="s"/>
-      <c r="C6" t="s"/>
+      <c r="B6" t="n">
+        <v>126912</v>
+      </c>
+      <c r="C6" t="s">
+        <v>88</v>
+      </c>
       <c r="D6" t="n">
         <v>5</v>
       </c>
       <c r="E6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F6" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="G6" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H6" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I6" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="J6" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="K6" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="L6" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="M6" t="n">
         <v>3</v>
       </c>
       <c r="N6" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="O6" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P6" t="n">
         <v>4</v>
@@ -2971,56 +3237,60 @@
         <v>0</v>
       </c>
       <c r="W6" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="X6" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="Y6" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
         <v>20384</v>
       </c>
-      <c r="B7" t="s"/>
-      <c r="C7" t="s"/>
+      <c r="B7" t="n">
+        <v>109912</v>
+      </c>
+      <c r="C7" t="s">
+        <v>98</v>
+      </c>
       <c r="D7" t="n">
         <v>6</v>
       </c>
       <c r="E7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F7" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="G7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I7" t="s">
+        <v>100</v>
+      </c>
+      <c r="J7" t="s">
+        <v>101</v>
+      </c>
+      <c r="K7" t="s">
+        <v>102</v>
+      </c>
+      <c r="L7" t="s">
+        <v>103</v>
+      </c>
+      <c r="M7" t="n">
+        <v>4</v>
+      </c>
+      <c r="N7" t="s">
         <v>94</v>
       </c>
-      <c r="J7" t="s">
-        <v>95</v>
-      </c>
-      <c r="K7" t="s">
-        <v>96</v>
-      </c>
-      <c r="L7" t="s">
-        <v>97</v>
-      </c>
-      <c r="M7" t="n">
-        <v>4</v>
-      </c>
-      <c r="N7" t="s">
-        <v>89</v>
-      </c>
       <c r="O7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P7" t="s"/>
       <c r="Q7" t="n">
@@ -3038,56 +3308,60 @@
         <v>0</v>
       </c>
       <c r="W7" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="X7" t="s">
-        <v>99</v>
+        <v>105</v>
       </c>
       <c r="Y7" t="s">
-        <v>100</v>
+        <v>106</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
         <v>20384</v>
       </c>
-      <c r="B8" t="s"/>
-      <c r="C8" t="s"/>
+      <c r="B8" t="n">
+        <v>95129</v>
+      </c>
+      <c r="C8" t="s">
+        <v>107</v>
+      </c>
       <c r="D8" t="n">
         <v>7</v>
       </c>
       <c r="E8" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F8" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="G8" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H8" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I8" t="s">
-        <v>102</v>
+        <v>109</v>
       </c>
       <c r="J8" t="s">
-        <v>103</v>
+        <v>110</v>
       </c>
       <c r="K8" t="s">
-        <v>104</v>
+        <v>111</v>
       </c>
       <c r="L8" t="s">
-        <v>105</v>
+        <v>112</v>
       </c>
       <c r="M8" t="n">
         <v>3</v>
       </c>
       <c r="N8" t="s">
-        <v>106</v>
+        <v>113</v>
       </c>
       <c r="O8" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P8" t="n">
         <v>3</v>
@@ -3105,56 +3379,60 @@
         <v>0</v>
       </c>
       <c r="W8" t="s">
-        <v>107</v>
+        <v>114</v>
       </c>
       <c r="X8" t="s">
-        <v>108</v>
+        <v>115</v>
       </c>
       <c r="Y8" t="s">
-        <v>109</v>
+        <v>116</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
         <v>20384</v>
       </c>
-      <c r="B9" t="s"/>
-      <c r="C9" t="s"/>
+      <c r="B9" t="n">
+        <v>126913</v>
+      </c>
+      <c r="C9" t="s">
+        <v>117</v>
+      </c>
       <c r="D9" t="n">
         <v>8</v>
       </c>
       <c r="E9" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F9" t="s">
-        <v>110</v>
+        <v>118</v>
       </c>
       <c r="G9" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H9" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I9" t="s">
-        <v>111</v>
+        <v>119</v>
       </c>
       <c r="J9" t="s">
-        <v>112</v>
+        <v>120</v>
       </c>
       <c r="K9" t="s">
+        <v>121</v>
+      </c>
+      <c r="L9" t="s">
+        <v>122</v>
+      </c>
+      <c r="M9" t="n">
+        <v>5</v>
+      </c>
+      <c r="N9" t="s">
         <v>113</v>
       </c>
-      <c r="L9" t="s">
-        <v>114</v>
-      </c>
-      <c r="M9" t="n">
-        <v>5</v>
-      </c>
-      <c r="N9" t="s">
-        <v>106</v>
-      </c>
       <c r="O9" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P9" t="n">
         <v>4</v>
@@ -3174,50 +3452,54 @@
       <c r="W9" t="s"/>
       <c r="X9" t="s"/>
       <c r="Y9" t="s">
-        <v>115</v>
+        <v>123</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
         <v>20384</v>
       </c>
-      <c r="B10" t="s"/>
-      <c r="C10" t="s"/>
+      <c r="B10" t="n">
+        <v>126914</v>
+      </c>
+      <c r="C10" t="s">
+        <v>124</v>
+      </c>
       <c r="D10" t="n">
         <v>9</v>
       </c>
       <c r="E10" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F10" t="s">
-        <v>116</v>
+        <v>125</v>
       </c>
       <c r="G10" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H10" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I10" t="s">
-        <v>117</v>
+        <v>126</v>
       </c>
       <c r="J10" t="s">
-        <v>118</v>
+        <v>127</v>
       </c>
       <c r="K10" t="s">
-        <v>119</v>
+        <v>128</v>
       </c>
       <c r="L10" t="s">
-        <v>120</v>
+        <v>129</v>
       </c>
       <c r="M10" t="n">
         <v>4</v>
       </c>
       <c r="N10" t="s">
-        <v>121</v>
+        <v>130</v>
       </c>
       <c r="O10" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="P10" t="s"/>
       <c r="Q10" t="s"/>
@@ -3229,56 +3511,60 @@
         <v>0</v>
       </c>
       <c r="W10" t="s">
-        <v>122</v>
+        <v>131</v>
       </c>
       <c r="X10" t="s">
-        <v>123</v>
+        <v>132</v>
       </c>
       <c r="Y10" t="s">
-        <v>124</v>
+        <v>133</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
         <v>20384</v>
       </c>
-      <c r="B11" t="s"/>
-      <c r="C11" t="s"/>
+      <c r="B11" t="n">
+        <v>126915</v>
+      </c>
+      <c r="C11" t="s">
+        <v>134</v>
+      </c>
       <c r="D11" t="n">
         <v>10</v>
       </c>
       <c r="E11" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F11" t="s">
-        <v>125</v>
+        <v>135</v>
       </c>
       <c r="G11" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H11" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I11" t="s">
-        <v>126</v>
+        <v>136</v>
       </c>
       <c r="J11" t="s">
-        <v>127</v>
+        <v>137</v>
       </c>
       <c r="K11" t="s">
-        <v>128</v>
+        <v>138</v>
       </c>
       <c r="L11" t="s">
-        <v>129</v>
+        <v>139</v>
       </c>
       <c r="M11" t="n">
         <v>3</v>
       </c>
       <c r="N11" t="s">
-        <v>130</v>
+        <v>140</v>
       </c>
       <c r="O11" t="s">
-        <v>131</v>
+        <v>141</v>
       </c>
       <c r="P11" t="n">
         <v>3</v>
@@ -3296,56 +3582,60 @@
         <v>0</v>
       </c>
       <c r="W11" t="s">
-        <v>132</v>
+        <v>142</v>
       </c>
       <c r="X11" t="s">
-        <v>133</v>
+        <v>143</v>
       </c>
       <c r="Y11" t="s">
-        <v>134</v>
+        <v>144</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
         <v>20384</v>
       </c>
-      <c r="B12" t="s"/>
-      <c r="C12" t="s"/>
+      <c r="B12" t="n">
+        <v>126916</v>
+      </c>
+      <c r="C12" t="s">
+        <v>145</v>
+      </c>
       <c r="D12" t="n">
         <v>11</v>
       </c>
       <c r="E12" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F12" t="s">
-        <v>135</v>
+        <v>146</v>
       </c>
       <c r="G12" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H12" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I12" t="s">
-        <v>136</v>
+        <v>147</v>
       </c>
       <c r="J12" t="s">
-        <v>137</v>
+        <v>148</v>
       </c>
       <c r="K12" t="s">
-        <v>138</v>
+        <v>149</v>
       </c>
       <c r="L12" t="s">
-        <v>139</v>
+        <v>150</v>
       </c>
       <c r="M12" t="n">
         <v>5</v>
       </c>
       <c r="N12" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="O12" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="P12" t="s"/>
       <c r="Q12" t="n">
@@ -3363,56 +3653,60 @@
         <v>0</v>
       </c>
       <c r="W12" t="s">
-        <v>141</v>
+        <v>152</v>
       </c>
       <c r="X12" t="s">
-        <v>142</v>
+        <v>153</v>
       </c>
       <c r="Y12" t="s">
-        <v>143</v>
+        <v>154</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
         <v>20384</v>
       </c>
-      <c r="B13" t="s"/>
-      <c r="C13" t="s"/>
+      <c r="B13" t="n">
+        <v>126917</v>
+      </c>
+      <c r="C13" t="s">
+        <v>155</v>
+      </c>
       <c r="D13" t="n">
         <v>12</v>
       </c>
       <c r="E13" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F13" t="s">
-        <v>144</v>
+        <v>156</v>
       </c>
       <c r="G13" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H13" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I13" t="s">
-        <v>145</v>
+        <v>157</v>
       </c>
       <c r="J13" t="s">
-        <v>146</v>
+        <v>158</v>
       </c>
       <c r="K13" t="s">
-        <v>147</v>
+        <v>159</v>
       </c>
       <c r="L13" t="s">
-        <v>148</v>
+        <v>160</v>
       </c>
       <c r="M13" t="n">
         <v>4</v>
       </c>
       <c r="N13" t="s">
-        <v>149</v>
+        <v>161</v>
       </c>
       <c r="O13" t="s">
-        <v>150</v>
+        <v>162</v>
       </c>
       <c r="P13" t="n">
         <v>5</v>
@@ -3430,56 +3724,60 @@
         <v>0</v>
       </c>
       <c r="W13" t="s">
-        <v>151</v>
+        <v>163</v>
       </c>
       <c r="X13" t="s">
-        <v>152</v>
+        <v>164</v>
       </c>
       <c r="Y13" t="s">
-        <v>153</v>
+        <v>165</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
         <v>20384</v>
       </c>
-      <c r="B14" t="s"/>
-      <c r="C14" t="s"/>
+      <c r="B14" t="n">
+        <v>126918</v>
+      </c>
+      <c r="C14" t="s">
+        <v>166</v>
+      </c>
       <c r="D14" t="n">
         <v>13</v>
       </c>
       <c r="E14" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F14" t="s">
-        <v>154</v>
+        <v>167</v>
       </c>
       <c r="G14" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H14" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I14" t="s">
-        <v>155</v>
+        <v>168</v>
       </c>
       <c r="J14" t="s">
-        <v>156</v>
+        <v>169</v>
       </c>
       <c r="K14" t="s">
-        <v>157</v>
+        <v>170</v>
       </c>
       <c r="L14" t="s">
-        <v>158</v>
+        <v>171</v>
       </c>
       <c r="M14" t="n">
         <v>5</v>
       </c>
       <c r="N14" t="s">
-        <v>149</v>
+        <v>161</v>
       </c>
       <c r="O14" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="P14" t="s"/>
       <c r="Q14" t="n">
@@ -3497,56 +3795,60 @@
         <v>0</v>
       </c>
       <c r="W14" t="s">
-        <v>159</v>
+        <v>172</v>
       </c>
       <c r="X14" t="s">
-        <v>160</v>
+        <v>173</v>
       </c>
       <c r="Y14" t="s">
-        <v>161</v>
+        <v>174</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
         <v>20384</v>
       </c>
-      <c r="B15" t="s"/>
-      <c r="C15" t="s"/>
+      <c r="B15" t="n">
+        <v>103888</v>
+      </c>
+      <c r="C15" t="s">
+        <v>175</v>
+      </c>
       <c r="D15" t="n">
         <v>14</v>
       </c>
       <c r="E15" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F15" t="s">
-        <v>162</v>
+        <v>176</v>
       </c>
       <c r="G15" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H15" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I15" t="s">
-        <v>163</v>
+        <v>177</v>
       </c>
       <c r="J15" t="s">
-        <v>164</v>
+        <v>178</v>
       </c>
       <c r="K15" t="s">
-        <v>165</v>
+        <v>179</v>
       </c>
       <c r="L15" t="s">
-        <v>166</v>
+        <v>180</v>
       </c>
       <c r="M15" t="n">
         <v>3</v>
       </c>
       <c r="N15" t="s">
-        <v>167</v>
+        <v>181</v>
       </c>
       <c r="O15" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P15" t="s"/>
       <c r="Q15" t="n">
@@ -3564,56 +3866,60 @@
         <v>0</v>
       </c>
       <c r="W15" t="s">
-        <v>168</v>
+        <v>182</v>
       </c>
       <c r="X15" t="s">
-        <v>169</v>
+        <v>183</v>
       </c>
       <c r="Y15" t="s">
-        <v>170</v>
+        <v>184</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
         <v>20384</v>
       </c>
-      <c r="B16" t="s"/>
-      <c r="C16" t="s"/>
+      <c r="B16" t="n">
+        <v>126919</v>
+      </c>
+      <c r="C16" t="s">
+        <v>185</v>
+      </c>
       <c r="D16" t="n">
         <v>15</v>
       </c>
       <c r="E16" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F16" t="s">
-        <v>171</v>
+        <v>186</v>
       </c>
       <c r="G16" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H16" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I16" t="s">
-        <v>172</v>
+        <v>187</v>
       </c>
       <c r="J16" t="s">
-        <v>173</v>
+        <v>188</v>
       </c>
       <c r="K16" t="s">
-        <v>174</v>
+        <v>189</v>
       </c>
       <c r="L16" t="s">
-        <v>175</v>
+        <v>190</v>
       </c>
       <c r="M16" t="n">
         <v>3</v>
       </c>
       <c r="N16" t="s">
-        <v>167</v>
+        <v>181</v>
       </c>
       <c r="O16" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="P16" t="s"/>
       <c r="Q16" t="s"/>
@@ -3625,56 +3931,60 @@
         <v>0</v>
       </c>
       <c r="W16" t="s">
-        <v>176</v>
+        <v>191</v>
       </c>
       <c r="X16" t="s">
-        <v>177</v>
+        <v>192</v>
       </c>
       <c r="Y16" t="s">
-        <v>178</v>
+        <v>193</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
         <v>20384</v>
       </c>
-      <c r="B17" t="s"/>
-      <c r="C17" t="s"/>
+      <c r="B17" t="n">
+        <v>123</v>
+      </c>
+      <c r="C17" t="s">
+        <v>194</v>
+      </c>
       <c r="D17" t="n">
         <v>16</v>
       </c>
       <c r="E17" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F17" t="s">
-        <v>179</v>
+        <v>195</v>
       </c>
       <c r="G17" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H17" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I17" t="s">
-        <v>180</v>
+        <v>196</v>
       </c>
       <c r="J17" t="s">
-        <v>181</v>
+        <v>197</v>
       </c>
       <c r="K17" t="s">
-        <v>182</v>
+        <v>198</v>
       </c>
       <c r="L17" t="s">
-        <v>183</v>
+        <v>199</v>
       </c>
       <c r="M17" t="n">
         <v>4</v>
       </c>
       <c r="N17" t="s">
-        <v>184</v>
+        <v>200</v>
       </c>
       <c r="O17" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P17" t="s"/>
       <c r="Q17" t="n">
@@ -3690,56 +4000,60 @@
         <v>0</v>
       </c>
       <c r="W17" t="s">
-        <v>185</v>
+        <v>201</v>
       </c>
       <c r="X17" t="s">
-        <v>186</v>
+        <v>202</v>
       </c>
       <c r="Y17" t="s">
-        <v>187</v>
+        <v>203</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
         <v>20384</v>
       </c>
-      <c r="B18" t="s"/>
-      <c r="C18" t="s"/>
+      <c r="B18" t="n">
+        <v>9130</v>
+      </c>
+      <c r="C18" t="s">
+        <v>204</v>
+      </c>
       <c r="D18" t="n">
         <v>17</v>
       </c>
       <c r="E18" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F18" t="s">
-        <v>188</v>
+        <v>205</v>
       </c>
       <c r="G18" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H18" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I18" t="s">
-        <v>189</v>
+        <v>206</v>
       </c>
       <c r="J18" t="s">
-        <v>190</v>
+        <v>207</v>
       </c>
       <c r="K18" t="s">
-        <v>191</v>
+        <v>208</v>
       </c>
       <c r="L18" t="s">
-        <v>192</v>
+        <v>209</v>
       </c>
       <c r="M18" t="n">
         <v>4</v>
       </c>
       <c r="N18" t="s">
-        <v>167</v>
+        <v>181</v>
       </c>
       <c r="O18" t="s">
-        <v>131</v>
+        <v>141</v>
       </c>
       <c r="P18" t="s"/>
       <c r="Q18" t="s"/>
@@ -3755,56 +4069,60 @@
         <v>0</v>
       </c>
       <c r="W18" t="s">
-        <v>193</v>
+        <v>210</v>
       </c>
       <c r="X18" t="s">
-        <v>194</v>
+        <v>211</v>
       </c>
       <c r="Y18" t="s">
-        <v>195</v>
+        <v>212</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
         <v>20384</v>
       </c>
-      <c r="B19" t="s"/>
-      <c r="C19" t="s"/>
+      <c r="B19" t="n">
+        <v>53674</v>
+      </c>
+      <c r="C19" t="s">
+        <v>213</v>
+      </c>
       <c r="D19" t="n">
         <v>18</v>
       </c>
       <c r="E19" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F19" t="s">
-        <v>196</v>
+        <v>214</v>
       </c>
       <c r="G19" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H19" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I19" t="s">
-        <v>197</v>
+        <v>215</v>
       </c>
       <c r="J19" t="s">
-        <v>198</v>
+        <v>216</v>
       </c>
       <c r="K19" t="s">
-        <v>199</v>
+        <v>217</v>
       </c>
       <c r="L19" t="s">
+        <v>218</v>
+      </c>
+      <c r="M19" t="n">
+        <v>4</v>
+      </c>
+      <c r="N19" t="s">
         <v>200</v>
       </c>
-      <c r="M19" t="n">
-        <v>4</v>
-      </c>
-      <c r="N19" t="s">
-        <v>184</v>
-      </c>
       <c r="O19" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P19" t="s"/>
       <c r="Q19" t="n">
@@ -3822,56 +4140,60 @@
         <v>0</v>
       </c>
       <c r="W19" t="s">
-        <v>201</v>
+        <v>219</v>
       </c>
       <c r="X19" t="s">
-        <v>202</v>
+        <v>220</v>
       </c>
       <c r="Y19" t="s">
-        <v>203</v>
+        <v>221</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
         <v>20384</v>
       </c>
-      <c r="B20" t="s"/>
-      <c r="C20" t="s"/>
+      <c r="B20" t="n">
+        <v>126920</v>
+      </c>
+      <c r="C20" t="s">
+        <v>222</v>
+      </c>
       <c r="D20" t="n">
         <v>19</v>
       </c>
       <c r="E20" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F20" t="s">
-        <v>204</v>
+        <v>223</v>
       </c>
       <c r="G20" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H20" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I20" t="s">
-        <v>205</v>
+        <v>224</v>
       </c>
       <c r="J20" t="s">
-        <v>206</v>
+        <v>225</v>
       </c>
       <c r="K20" t="s">
-        <v>207</v>
+        <v>226</v>
       </c>
       <c r="L20" t="s">
-        <v>208</v>
+        <v>227</v>
       </c>
       <c r="M20" t="n">
         <v>3</v>
       </c>
       <c r="N20" t="s">
-        <v>184</v>
+        <v>200</v>
       </c>
       <c r="O20" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="P20" t="s"/>
       <c r="Q20" t="s"/>
@@ -3883,13 +4205,13 @@
         <v>0</v>
       </c>
       <c r="W20" t="s">
-        <v>209</v>
+        <v>228</v>
       </c>
       <c r="X20" t="s">
-        <v>210</v>
+        <v>229</v>
       </c>
       <c r="Y20" t="s">
-        <v>211</v>
+        <v>230</v>
       </c>
     </row>
     <row r="21">
@@ -3902,37 +4224,37 @@
         <v>20</v>
       </c>
       <c r="E21" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F21" t="s">
-        <v>212</v>
+        <v>231</v>
       </c>
       <c r="G21" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H21" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I21" t="s">
-        <v>213</v>
+        <v>232</v>
       </c>
       <c r="J21" t="s">
-        <v>214</v>
+        <v>233</v>
       </c>
       <c r="K21" t="s">
-        <v>215</v>
+        <v>234</v>
       </c>
       <c r="L21" t="s">
-        <v>216</v>
+        <v>235</v>
       </c>
       <c r="M21" t="n">
         <v>4</v>
       </c>
       <c r="N21" t="s">
-        <v>184</v>
+        <v>200</v>
       </c>
       <c r="O21" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="P21" t="s"/>
       <c r="Q21" t="s"/>
@@ -3944,56 +4266,60 @@
         <v>0</v>
       </c>
       <c r="W21" t="s">
-        <v>217</v>
+        <v>236</v>
       </c>
       <c r="X21" t="s">
-        <v>218</v>
+        <v>237</v>
       </c>
       <c r="Y21" t="s">
-        <v>219</v>
+        <v>238</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
         <v>20384</v>
       </c>
-      <c r="B22" t="s"/>
-      <c r="C22" t="s"/>
+      <c r="B22" t="n">
+        <v>126921</v>
+      </c>
+      <c r="C22" t="s">
+        <v>239</v>
+      </c>
       <c r="D22" t="n">
         <v>21</v>
       </c>
       <c r="E22" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F22" t="s">
-        <v>220</v>
+        <v>240</v>
       </c>
       <c r="G22" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H22" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I22" t="s">
-        <v>221</v>
+        <v>241</v>
       </c>
       <c r="J22" t="s">
-        <v>222</v>
+        <v>242</v>
       </c>
       <c r="K22" t="s">
-        <v>223</v>
+        <v>243</v>
       </c>
       <c r="L22" t="s">
-        <v>224</v>
+        <v>244</v>
       </c>
       <c r="M22" t="n">
         <v>4</v>
       </c>
       <c r="N22" t="s">
-        <v>184</v>
+        <v>200</v>
       </c>
       <c r="O22" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P22" t="s"/>
       <c r="Q22" t="s"/>
@@ -4005,56 +4331,60 @@
         <v>0</v>
       </c>
       <c r="W22" t="s">
-        <v>225</v>
+        <v>245</v>
       </c>
       <c r="X22" t="s">
-        <v>226</v>
+        <v>246</v>
       </c>
       <c r="Y22" t="s">
-        <v>227</v>
+        <v>247</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
         <v>20384</v>
       </c>
-      <c r="B23" t="s"/>
-      <c r="C23" t="s"/>
+      <c r="B23" t="n">
+        <v>8371</v>
+      </c>
+      <c r="C23" t="s">
+        <v>248</v>
+      </c>
       <c r="D23" t="n">
         <v>22</v>
       </c>
       <c r="E23" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F23" t="s">
-        <v>228</v>
+        <v>249</v>
       </c>
       <c r="G23" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H23" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I23" t="s">
-        <v>229</v>
+        <v>250</v>
       </c>
       <c r="J23" t="s">
-        <v>230</v>
+        <v>251</v>
       </c>
       <c r="K23" t="s">
-        <v>231</v>
+        <v>252</v>
       </c>
       <c r="L23" t="s">
-        <v>232</v>
+        <v>253</v>
       </c>
       <c r="M23" t="n">
         <v>5</v>
       </c>
       <c r="N23" t="s">
-        <v>233</v>
+        <v>254</v>
       </c>
       <c r="O23" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P23" t="n">
         <v>5</v>
@@ -4070,47 +4400,51 @@
         <v>0</v>
       </c>
       <c r="W23" t="s">
-        <v>234</v>
+        <v>255</v>
       </c>
       <c r="X23" t="s">
-        <v>235</v>
+        <v>256</v>
       </c>
       <c r="Y23" t="s">
-        <v>236</v>
+        <v>257</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
         <v>20384</v>
       </c>
-      <c r="B24" t="s"/>
-      <c r="C24" t="s"/>
+      <c r="B24" t="n">
+        <v>81978</v>
+      </c>
+      <c r="C24" t="s">
+        <v>258</v>
+      </c>
       <c r="D24" t="n">
         <v>23</v>
       </c>
       <c r="E24" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F24" t="s">
-        <v>237</v>
+        <v>259</v>
       </c>
       <c r="G24" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H24" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I24" t="s">
-        <v>238</v>
+        <v>260</v>
       </c>
       <c r="J24" t="s">
-        <v>239</v>
+        <v>261</v>
       </c>
       <c r="K24" t="s">
-        <v>240</v>
+        <v>262</v>
       </c>
       <c r="L24" t="s">
-        <v>241</v>
+        <v>263</v>
       </c>
       <c r="M24" t="n">
         <v>4</v>
@@ -4127,56 +4461,60 @@
         <v>0</v>
       </c>
       <c r="W24" t="s">
-        <v>242</v>
+        <v>264</v>
       </c>
       <c r="X24" t="s">
-        <v>243</v>
+        <v>265</v>
       </c>
       <c r="Y24" t="s">
-        <v>244</v>
+        <v>266</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
         <v>20384</v>
       </c>
-      <c r="B25" t="s"/>
-      <c r="C25" t="s"/>
+      <c r="B25" t="n">
+        <v>126922</v>
+      </c>
+      <c r="C25" t="s">
+        <v>267</v>
+      </c>
       <c r="D25" t="n">
         <v>24</v>
       </c>
       <c r="E25" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F25" t="s">
-        <v>245</v>
+        <v>268</v>
       </c>
       <c r="G25" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H25" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I25" t="s">
-        <v>246</v>
+        <v>269</v>
       </c>
       <c r="J25" t="s">
-        <v>247</v>
+        <v>270</v>
       </c>
       <c r="K25" t="s">
-        <v>248</v>
+        <v>271</v>
       </c>
       <c r="L25" t="s">
-        <v>249</v>
+        <v>272</v>
       </c>
       <c r="M25" t="n">
         <v>4</v>
       </c>
       <c r="N25" t="s">
-        <v>250</v>
+        <v>273</v>
       </c>
       <c r="O25" t="s">
-        <v>150</v>
+        <v>162</v>
       </c>
       <c r="P25" t="n">
         <v>4</v>
@@ -4194,56 +4532,60 @@
         <v>0</v>
       </c>
       <c r="W25" t="s">
-        <v>251</v>
+        <v>274</v>
       </c>
       <c r="X25" t="s">
-        <v>252</v>
+        <v>275</v>
       </c>
       <c r="Y25" t="s">
-        <v>253</v>
+        <v>276</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
         <v>20384</v>
       </c>
-      <c r="B26" t="s"/>
-      <c r="C26" t="s"/>
+      <c r="B26" t="n">
+        <v>126923</v>
+      </c>
+      <c r="C26" t="s">
+        <v>277</v>
+      </c>
       <c r="D26" t="n">
         <v>25</v>
       </c>
       <c r="E26" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F26" t="s">
-        <v>254</v>
+        <v>278</v>
       </c>
       <c r="G26" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H26" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I26" t="s">
-        <v>255</v>
+        <v>279</v>
       </c>
       <c r="J26" t="s">
-        <v>256</v>
+        <v>280</v>
       </c>
       <c r="K26" t="s">
-        <v>257</v>
+        <v>281</v>
       </c>
       <c r="L26" t="s">
-        <v>258</v>
+        <v>282</v>
       </c>
       <c r="M26" t="n">
         <v>4</v>
       </c>
       <c r="N26" t="s">
-        <v>259</v>
+        <v>283</v>
       </c>
       <c r="O26" t="s">
-        <v>131</v>
+        <v>141</v>
       </c>
       <c r="P26" t="s"/>
       <c r="Q26" t="s"/>
@@ -4255,56 +4597,60 @@
         <v>0</v>
       </c>
       <c r="W26" t="s">
-        <v>260</v>
+        <v>284</v>
       </c>
       <c r="X26" t="s">
-        <v>261</v>
+        <v>285</v>
       </c>
       <c r="Y26" t="s">
-        <v>262</v>
+        <v>286</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
         <v>20384</v>
       </c>
-      <c r="B27" t="s"/>
-      <c r="C27" t="s"/>
+      <c r="B27" t="n">
+        <v>126924</v>
+      </c>
+      <c r="C27" t="s">
+        <v>287</v>
+      </c>
       <c r="D27" t="n">
         <v>26</v>
       </c>
       <c r="E27" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F27" t="s">
-        <v>263</v>
+        <v>288</v>
       </c>
       <c r="G27" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H27" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I27" t="s">
-        <v>264</v>
+        <v>289</v>
       </c>
       <c r="J27" t="s">
-        <v>265</v>
+        <v>290</v>
       </c>
       <c r="K27" t="s">
-        <v>266</v>
+        <v>291</v>
       </c>
       <c r="L27" t="s">
-        <v>267</v>
+        <v>292</v>
       </c>
       <c r="M27" t="n">
         <v>5</v>
       </c>
       <c r="N27" t="s">
-        <v>259</v>
+        <v>283</v>
       </c>
       <c r="O27" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P27" t="s"/>
       <c r="Q27" t="s"/>
@@ -4320,56 +4666,60 @@
         <v>0</v>
       </c>
       <c r="W27" t="s">
-        <v>268</v>
+        <v>293</v>
       </c>
       <c r="X27" t="s">
-        <v>269</v>
+        <v>294</v>
       </c>
       <c r="Y27" t="s">
-        <v>270</v>
+        <v>295</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
         <v>20384</v>
       </c>
-      <c r="B28" t="s"/>
-      <c r="C28" t="s"/>
+      <c r="B28" t="n">
+        <v>10713</v>
+      </c>
+      <c r="C28" t="s">
+        <v>296</v>
+      </c>
       <c r="D28" t="n">
         <v>27</v>
       </c>
       <c r="E28" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F28" t="s">
-        <v>271</v>
+        <v>297</v>
       </c>
       <c r="G28" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H28" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I28" t="s">
-        <v>272</v>
+        <v>298</v>
       </c>
       <c r="J28" t="s">
-        <v>273</v>
+        <v>299</v>
       </c>
       <c r="K28" t="s">
-        <v>274</v>
+        <v>300</v>
       </c>
       <c r="L28" t="s">
-        <v>275</v>
+        <v>301</v>
       </c>
       <c r="M28" t="n">
         <v>3</v>
       </c>
       <c r="N28" t="s">
-        <v>276</v>
+        <v>302</v>
       </c>
       <c r="O28" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P28" t="s"/>
       <c r="Q28" t="n">
@@ -4385,56 +4735,60 @@
         <v>0</v>
       </c>
       <c r="W28" t="s">
-        <v>277</v>
+        <v>303</v>
       </c>
       <c r="X28" t="s">
-        <v>278</v>
+        <v>304</v>
       </c>
       <c r="Y28" t="s">
-        <v>279</v>
+        <v>305</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
         <v>20384</v>
       </c>
-      <c r="B29" t="s"/>
-      <c r="C29" t="s"/>
+      <c r="B29" t="n">
+        <v>126925</v>
+      </c>
+      <c r="C29" t="s">
+        <v>306</v>
+      </c>
       <c r="D29" t="n">
         <v>28</v>
       </c>
       <c r="E29" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F29" t="s">
-        <v>280</v>
+        <v>307</v>
       </c>
       <c r="G29" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H29" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I29" t="s">
-        <v>281</v>
+        <v>308</v>
       </c>
       <c r="J29" t="s">
-        <v>282</v>
+        <v>309</v>
       </c>
       <c r="K29" t="s">
-        <v>283</v>
+        <v>310</v>
       </c>
       <c r="L29" t="s">
-        <v>284</v>
+        <v>311</v>
       </c>
       <c r="M29" t="n">
         <v>3</v>
       </c>
       <c r="N29" t="s">
-        <v>276</v>
+        <v>302</v>
       </c>
       <c r="O29" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P29" t="s"/>
       <c r="Q29" t="s"/>
@@ -4446,56 +4800,60 @@
         <v>0</v>
       </c>
       <c r="W29" t="s">
-        <v>285</v>
+        <v>312</v>
       </c>
       <c r="X29" t="s">
-        <v>286</v>
+        <v>313</v>
       </c>
       <c r="Y29" t="s">
-        <v>287</v>
+        <v>314</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
         <v>20384</v>
       </c>
-      <c r="B30" t="s"/>
-      <c r="C30" t="s"/>
+      <c r="B30" t="n">
+        <v>126926</v>
+      </c>
+      <c r="C30" t="s">
+        <v>315</v>
+      </c>
       <c r="D30" t="n">
         <v>29</v>
       </c>
       <c r="E30" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F30" t="s">
-        <v>288</v>
+        <v>316</v>
       </c>
       <c r="G30" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H30" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I30" t="s">
-        <v>289</v>
+        <v>317</v>
       </c>
       <c r="J30" t="s">
-        <v>290</v>
+        <v>318</v>
       </c>
       <c r="K30" t="s">
-        <v>291</v>
+        <v>319</v>
       </c>
       <c r="L30" t="s">
-        <v>292</v>
+        <v>320</v>
       </c>
       <c r="M30" t="n">
         <v>5</v>
       </c>
       <c r="N30" t="s">
-        <v>276</v>
+        <v>302</v>
       </c>
       <c r="O30" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P30" t="s"/>
       <c r="Q30" t="n">
@@ -4513,56 +4871,60 @@
         <v>0</v>
       </c>
       <c r="W30" t="s">
-        <v>293</v>
+        <v>321</v>
       </c>
       <c r="X30" t="s">
-        <v>294</v>
+        <v>322</v>
       </c>
       <c r="Y30" t="s">
-        <v>295</v>
+        <v>323</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
         <v>20384</v>
       </c>
-      <c r="B31" t="s"/>
-      <c r="C31" t="s"/>
+      <c r="B31" t="n">
+        <v>126927</v>
+      </c>
+      <c r="C31" t="s">
+        <v>324</v>
+      </c>
       <c r="D31" t="n">
         <v>30</v>
       </c>
       <c r="E31" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F31" t="s">
-        <v>296</v>
+        <v>325</v>
       </c>
       <c r="G31" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H31" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I31" t="s">
-        <v>297</v>
+        <v>326</v>
       </c>
       <c r="J31" t="s">
-        <v>298</v>
+        <v>327</v>
       </c>
       <c r="K31" t="s">
-        <v>299</v>
+        <v>328</v>
       </c>
       <c r="L31" t="s">
-        <v>300</v>
+        <v>329</v>
       </c>
       <c r="M31" t="n">
         <v>3</v>
       </c>
       <c r="N31" t="s">
-        <v>276</v>
+        <v>302</v>
       </c>
       <c r="O31" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P31" t="s"/>
       <c r="Q31" t="s"/>
@@ -4574,56 +4936,60 @@
         <v>0</v>
       </c>
       <c r="W31" t="s">
-        <v>301</v>
+        <v>330</v>
       </c>
       <c r="X31" t="s">
-        <v>302</v>
+        <v>331</v>
       </c>
       <c r="Y31" t="s">
-        <v>303</v>
+        <v>332</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
         <v>20384</v>
       </c>
-      <c r="B32" t="s"/>
-      <c r="C32" t="s"/>
+      <c r="B32" t="n">
+        <v>126928</v>
+      </c>
+      <c r="C32" t="s">
+        <v>333</v>
+      </c>
       <c r="D32" t="n">
         <v>31</v>
       </c>
       <c r="E32" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F32" t="s">
-        <v>304</v>
+        <v>334</v>
       </c>
       <c r="G32" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H32" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I32" t="s">
-        <v>305</v>
+        <v>335</v>
       </c>
       <c r="J32" t="s">
-        <v>306</v>
+        <v>336</v>
       </c>
       <c r="K32" t="s">
-        <v>307</v>
+        <v>337</v>
       </c>
       <c r="L32" t="s">
-        <v>308</v>
+        <v>338</v>
       </c>
       <c r="M32" t="n">
         <v>4</v>
       </c>
       <c r="N32" t="s">
-        <v>309</v>
+        <v>339</v>
       </c>
       <c r="O32" t="s">
-        <v>131</v>
+        <v>141</v>
       </c>
       <c r="P32" t="n">
         <v>5</v>
@@ -4641,56 +5007,60 @@
         <v>0</v>
       </c>
       <c r="W32" t="s">
-        <v>310</v>
+        <v>340</v>
       </c>
       <c r="X32" t="s">
-        <v>311</v>
+        <v>341</v>
       </c>
       <c r="Y32" t="s">
-        <v>312</v>
+        <v>342</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
         <v>20384</v>
       </c>
-      <c r="B33" t="s"/>
-      <c r="C33" t="s"/>
+      <c r="B33" t="n">
+        <v>4299</v>
+      </c>
+      <c r="C33" t="s">
+        <v>343</v>
+      </c>
       <c r="D33" t="n">
         <v>32</v>
       </c>
       <c r="E33" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F33" t="s">
-        <v>313</v>
+        <v>344</v>
       </c>
       <c r="G33" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H33" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I33" t="s">
-        <v>314</v>
+        <v>345</v>
       </c>
       <c r="J33" t="s">
-        <v>315</v>
+        <v>346</v>
       </c>
       <c r="K33" t="s">
-        <v>316</v>
+        <v>347</v>
       </c>
       <c r="L33" t="s">
-        <v>317</v>
+        <v>348</v>
       </c>
       <c r="M33" t="n">
         <v>4</v>
       </c>
       <c r="N33" t="s">
-        <v>309</v>
+        <v>339</v>
       </c>
       <c r="O33" t="s">
-        <v>318</v>
+        <v>349</v>
       </c>
       <c r="P33" t="s"/>
       <c r="Q33" t="s"/>
@@ -4702,56 +5072,60 @@
         <v>0</v>
       </c>
       <c r="W33" t="s">
-        <v>319</v>
+        <v>350</v>
       </c>
       <c r="X33" t="s">
-        <v>320</v>
+        <v>351</v>
       </c>
       <c r="Y33" t="s">
-        <v>321</v>
+        <v>352</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
         <v>20384</v>
       </c>
-      <c r="B34" t="s"/>
-      <c r="C34" t="s"/>
+      <c r="B34" t="n">
+        <v>44636</v>
+      </c>
+      <c r="C34" t="s">
+        <v>353</v>
+      </c>
       <c r="D34" t="n">
         <v>33</v>
       </c>
       <c r="E34" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F34" t="s">
-        <v>322</v>
+        <v>354</v>
       </c>
       <c r="G34" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H34" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I34" t="s">
-        <v>323</v>
+        <v>355</v>
       </c>
       <c r="J34" t="s">
-        <v>324</v>
+        <v>356</v>
       </c>
       <c r="K34" t="s">
-        <v>325</v>
+        <v>357</v>
       </c>
       <c r="L34" t="s">
-        <v>326</v>
+        <v>358</v>
       </c>
       <c r="M34" t="n">
         <v>4</v>
       </c>
       <c r="N34" t="s">
-        <v>327</v>
+        <v>359</v>
       </c>
       <c r="O34" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P34" t="s"/>
       <c r="Q34" t="s"/>
@@ -4763,38 +5137,42 @@
         <v>0</v>
       </c>
       <c r="W34" t="s">
-        <v>328</v>
+        <v>360</v>
       </c>
       <c r="X34" t="s">
-        <v>329</v>
+        <v>361</v>
       </c>
       <c r="Y34" t="s">
-        <v>330</v>
+        <v>362</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
         <v>20384</v>
       </c>
-      <c r="B35" t="s"/>
-      <c r="C35" t="s"/>
+      <c r="B35" t="n">
+        <v>14239</v>
+      </c>
+      <c r="C35" t="s">
+        <v>363</v>
+      </c>
       <c r="D35" t="n">
         <v>34</v>
       </c>
       <c r="E35" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F35" t="s">
-        <v>331</v>
+        <v>364</v>
       </c>
       <c r="G35" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H35" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I35" t="s">
-        <v>332</v>
+        <v>365</v>
       </c>
       <c r="J35" t="s"/>
       <c r="K35" t="s"/>
@@ -4811,51 +5189,52 @@
       <c r="V35" t="n">
         <v>0</v>
       </c>
-      <c r="W35" t="s"/>
-      <c r="X35" t="s"/>
-      <c r="Y35" t="s"/>
     </row>
     <row r="36">
       <c r="A36" t="n">
         <v>20384</v>
       </c>
-      <c r="B36" t="s"/>
-      <c r="C36" t="s"/>
+      <c r="B36" t="n">
+        <v>126929</v>
+      </c>
+      <c r="C36" t="s">
+        <v>366</v>
+      </c>
       <c r="D36" t="n">
         <v>35</v>
       </c>
       <c r="E36" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F36" t="s">
-        <v>333</v>
+        <v>367</v>
       </c>
       <c r="G36" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H36" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I36" t="s">
-        <v>334</v>
+        <v>368</v>
       </c>
       <c r="J36" t="s">
-        <v>335</v>
+        <v>369</v>
       </c>
       <c r="K36" t="s">
-        <v>336</v>
+        <v>370</v>
       </c>
       <c r="L36" t="s">
-        <v>337</v>
+        <v>371</v>
       </c>
       <c r="M36" t="n">
         <v>5</v>
       </c>
       <c r="N36" t="s">
-        <v>338</v>
+        <v>372</v>
       </c>
       <c r="O36" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="P36" t="n">
         <v>5</v>
@@ -4871,56 +5250,60 @@
         <v>0</v>
       </c>
       <c r="W36" t="s">
-        <v>339</v>
+        <v>373</v>
       </c>
       <c r="X36" t="s">
-        <v>340</v>
+        <v>374</v>
       </c>
       <c r="Y36" t="s">
-        <v>341</v>
+        <v>375</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
         <v>20384</v>
       </c>
-      <c r="B37" t="s"/>
-      <c r="C37" t="s"/>
+      <c r="B37" t="n">
+        <v>126930</v>
+      </c>
+      <c r="C37" t="s">
+        <v>376</v>
+      </c>
       <c r="D37" t="n">
         <v>36</v>
       </c>
       <c r="E37" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F37" t="s">
-        <v>342</v>
+        <v>377</v>
       </c>
       <c r="G37" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H37" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I37" t="s">
-        <v>343</v>
+        <v>378</v>
       </c>
       <c r="J37" t="s">
-        <v>344</v>
+        <v>379</v>
       </c>
       <c r="K37" t="s">
-        <v>345</v>
+        <v>380</v>
       </c>
       <c r="L37" t="s">
-        <v>346</v>
+        <v>381</v>
       </c>
       <c r="M37" t="n">
         <v>5</v>
       </c>
       <c r="N37" t="s">
-        <v>347</v>
+        <v>382</v>
       </c>
       <c r="O37" t="s">
-        <v>131</v>
+        <v>141</v>
       </c>
       <c r="P37" t="s"/>
       <c r="Q37" t="s"/>
@@ -4932,56 +5315,60 @@
         <v>0</v>
       </c>
       <c r="W37" t="s">
-        <v>339</v>
+        <v>373</v>
       </c>
       <c r="X37" t="s">
-        <v>340</v>
+        <v>374</v>
       </c>
       <c r="Y37" t="s">
-        <v>348</v>
+        <v>383</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
         <v>20384</v>
       </c>
-      <c r="B38" t="s"/>
-      <c r="C38" t="s"/>
+      <c r="B38" t="n">
+        <v>42140</v>
+      </c>
+      <c r="C38" t="s">
+        <v>384</v>
+      </c>
       <c r="D38" t="n">
         <v>37</v>
       </c>
       <c r="E38" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F38" t="s">
-        <v>349</v>
+        <v>385</v>
       </c>
       <c r="G38" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H38" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I38" t="s">
-        <v>350</v>
+        <v>386</v>
       </c>
       <c r="J38" t="s">
-        <v>351</v>
+        <v>387</v>
       </c>
       <c r="K38" t="s">
-        <v>352</v>
+        <v>388</v>
       </c>
       <c r="L38" t="s">
-        <v>353</v>
+        <v>389</v>
       </c>
       <c r="M38" t="n">
         <v>4</v>
       </c>
       <c r="N38" t="s">
-        <v>347</v>
+        <v>382</v>
       </c>
       <c r="O38" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="P38" t="s"/>
       <c r="Q38" t="s"/>
@@ -4993,56 +5380,60 @@
         <v>0</v>
       </c>
       <c r="W38" t="s">
-        <v>354</v>
+        <v>390</v>
       </c>
       <c r="X38" t="s">
-        <v>355</v>
+        <v>391</v>
       </c>
       <c r="Y38" t="s">
-        <v>356</v>
+        <v>392</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
         <v>20384</v>
       </c>
-      <c r="B39" t="s"/>
-      <c r="C39" t="s"/>
+      <c r="B39" t="n">
+        <v>126931</v>
+      </c>
+      <c r="C39" t="s">
+        <v>393</v>
+      </c>
       <c r="D39" t="n">
         <v>38</v>
       </c>
       <c r="E39" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F39" t="s">
-        <v>357</v>
+        <v>394</v>
       </c>
       <c r="G39" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H39" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I39" t="s">
-        <v>358</v>
+        <v>395</v>
       </c>
       <c r="J39" t="s">
-        <v>359</v>
+        <v>396</v>
       </c>
       <c r="K39" t="s">
-        <v>360</v>
+        <v>397</v>
       </c>
       <c r="L39" t="s">
-        <v>361</v>
+        <v>398</v>
       </c>
       <c r="M39" t="n">
         <v>2</v>
       </c>
       <c r="N39" t="s">
-        <v>347</v>
+        <v>382</v>
       </c>
       <c r="O39" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P39" t="s"/>
       <c r="Q39" t="n">
@@ -5060,56 +5451,60 @@
         <v>0</v>
       </c>
       <c r="W39" t="s">
-        <v>362</v>
+        <v>399</v>
       </c>
       <c r="X39" t="s">
-        <v>363</v>
+        <v>400</v>
       </c>
       <c r="Y39" t="s">
-        <v>364</v>
+        <v>401</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
         <v>20384</v>
       </c>
-      <c r="B40" t="s"/>
-      <c r="C40" t="s"/>
+      <c r="B40" t="n">
+        <v>126932</v>
+      </c>
+      <c r="C40" t="s">
+        <v>402</v>
+      </c>
       <c r="D40" t="n">
         <v>39</v>
       </c>
       <c r="E40" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F40" t="s">
-        <v>365</v>
+        <v>403</v>
       </c>
       <c r="G40" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H40" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I40" t="s">
-        <v>366</v>
+        <v>404</v>
       </c>
       <c r="J40" t="s">
-        <v>367</v>
+        <v>405</v>
       </c>
       <c r="K40" t="s">
-        <v>368</v>
+        <v>406</v>
       </c>
       <c r="L40" t="s">
-        <v>369</v>
+        <v>407</v>
       </c>
       <c r="M40" t="n">
         <v>3</v>
       </c>
       <c r="N40" t="s">
-        <v>347</v>
+        <v>382</v>
       </c>
       <c r="O40" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="P40" t="s"/>
       <c r="Q40" t="n">
@@ -5127,56 +5522,60 @@
         <v>0</v>
       </c>
       <c r="W40" t="s">
-        <v>370</v>
+        <v>408</v>
       </c>
       <c r="X40" t="s">
-        <v>371</v>
+        <v>409</v>
       </c>
       <c r="Y40" t="s">
-        <v>372</v>
+        <v>410</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
         <v>20384</v>
       </c>
-      <c r="B41" t="s"/>
-      <c r="C41" t="s"/>
+      <c r="B41" t="n">
+        <v>8909</v>
+      </c>
+      <c r="C41" t="s">
+        <v>411</v>
+      </c>
       <c r="D41" t="n">
         <v>40</v>
       </c>
       <c r="E41" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F41" t="s">
-        <v>373</v>
+        <v>412</v>
       </c>
       <c r="G41" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H41" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I41" t="s">
-        <v>374</v>
+        <v>413</v>
       </c>
       <c r="J41" t="s">
-        <v>375</v>
+        <v>414</v>
       </c>
       <c r="K41" t="s">
-        <v>376</v>
+        <v>415</v>
       </c>
       <c r="L41" t="s">
-        <v>377</v>
+        <v>416</v>
       </c>
       <c r="M41" t="n">
         <v>4</v>
       </c>
       <c r="N41" t="s">
-        <v>338</v>
+        <v>372</v>
       </c>
       <c r="O41" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="P41" t="s"/>
       <c r="Q41" t="s"/>
@@ -5188,56 +5587,60 @@
         <v>0</v>
       </c>
       <c r="W41" t="s">
-        <v>370</v>
+        <v>408</v>
       </c>
       <c r="X41" t="s">
-        <v>371</v>
+        <v>409</v>
       </c>
       <c r="Y41" t="s">
-        <v>378</v>
+        <v>417</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
         <v>20384</v>
       </c>
-      <c r="B42" t="s"/>
-      <c r="C42" t="s"/>
+      <c r="B42" t="n">
+        <v>4766</v>
+      </c>
+      <c r="C42" t="s">
+        <v>418</v>
+      </c>
       <c r="D42" t="n">
         <v>41</v>
       </c>
       <c r="E42" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F42" t="s">
-        <v>379</v>
+        <v>419</v>
       </c>
       <c r="G42" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H42" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I42" t="s">
-        <v>380</v>
+        <v>420</v>
       </c>
       <c r="J42" t="s">
-        <v>381</v>
+        <v>421</v>
       </c>
       <c r="K42" t="s">
-        <v>382</v>
+        <v>422</v>
       </c>
       <c r="L42" t="s">
-        <v>383</v>
+        <v>423</v>
       </c>
       <c r="M42" t="n">
         <v>4</v>
       </c>
       <c r="N42" t="s">
-        <v>384</v>
+        <v>424</v>
       </c>
       <c r="O42" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="P42" t="n">
         <v>3</v>
@@ -5255,56 +5658,60 @@
         <v>0</v>
       </c>
       <c r="W42" t="s">
-        <v>385</v>
+        <v>425</v>
       </c>
       <c r="X42" t="s">
-        <v>386</v>
+        <v>426</v>
       </c>
       <c r="Y42" t="s">
-        <v>387</v>
+        <v>427</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
         <v>20384</v>
       </c>
-      <c r="B43" t="s"/>
-      <c r="C43" t="s"/>
+      <c r="B43" t="n">
+        <v>65079</v>
+      </c>
+      <c r="C43" t="s">
+        <v>428</v>
+      </c>
       <c r="D43" t="n">
         <v>42</v>
       </c>
       <c r="E43" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F43" t="s">
-        <v>388</v>
+        <v>429</v>
       </c>
       <c r="G43" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H43" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I43" t="s">
-        <v>389</v>
+        <v>430</v>
       </c>
       <c r="J43" t="s">
-        <v>390</v>
+        <v>431</v>
       </c>
       <c r="K43" t="s">
-        <v>391</v>
+        <v>432</v>
       </c>
       <c r="L43" t="s">
-        <v>392</v>
+        <v>433</v>
       </c>
       <c r="M43" t="n">
         <v>4</v>
       </c>
       <c r="N43" t="s">
-        <v>393</v>
+        <v>434</v>
       </c>
       <c r="O43" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="P43" t="s"/>
       <c r="Q43" t="s"/>
@@ -5316,56 +5723,60 @@
         <v>0</v>
       </c>
       <c r="W43" t="s">
-        <v>394</v>
+        <v>435</v>
       </c>
       <c r="X43" t="s">
-        <v>395</v>
+        <v>436</v>
       </c>
       <c r="Y43" t="s">
-        <v>396</v>
+        <v>437</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
         <v>20384</v>
       </c>
-      <c r="B44" t="s"/>
-      <c r="C44" t="s"/>
+      <c r="B44" t="n">
+        <v>126933</v>
+      </c>
+      <c r="C44" t="s">
+        <v>438</v>
+      </c>
       <c r="D44" t="n">
         <v>43</v>
       </c>
       <c r="E44" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F44" t="s">
-        <v>397</v>
+        <v>439</v>
       </c>
       <c r="G44" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H44" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I44" t="s">
-        <v>398</v>
+        <v>440</v>
       </c>
       <c r="J44" t="s">
-        <v>399</v>
+        <v>441</v>
       </c>
       <c r="K44" t="s">
-        <v>400</v>
+        <v>442</v>
       </c>
       <c r="L44" t="s">
-        <v>401</v>
+        <v>443</v>
       </c>
       <c r="M44" t="n">
         <v>4</v>
       </c>
       <c r="N44" t="s">
-        <v>384</v>
+        <v>424</v>
       </c>
       <c r="O44" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P44" t="s"/>
       <c r="Q44" t="n">
@@ -5383,56 +5794,60 @@
         <v>0</v>
       </c>
       <c r="W44" t="s">
-        <v>402</v>
+        <v>444</v>
       </c>
       <c r="X44" t="s">
-        <v>403</v>
+        <v>445</v>
       </c>
       <c r="Y44" t="s">
-        <v>404</v>
+        <v>446</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
         <v>20384</v>
       </c>
-      <c r="B45" t="s"/>
-      <c r="C45" t="s"/>
+      <c r="B45" t="n">
+        <v>126934</v>
+      </c>
+      <c r="C45" t="s">
+        <v>447</v>
+      </c>
       <c r="D45" t="n">
         <v>44</v>
       </c>
       <c r="E45" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F45" t="s">
-        <v>405</v>
+        <v>448</v>
       </c>
       <c r="G45" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H45" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I45" t="s">
-        <v>406</v>
+        <v>449</v>
       </c>
       <c r="J45" t="s">
-        <v>407</v>
+        <v>450</v>
       </c>
       <c r="K45" t="s">
-        <v>408</v>
+        <v>451</v>
       </c>
       <c r="L45" t="s">
-        <v>409</v>
+        <v>452</v>
       </c>
       <c r="M45" t="n">
         <v>4</v>
       </c>
       <c r="N45" t="s">
-        <v>410</v>
+        <v>453</v>
       </c>
       <c r="O45" t="s">
-        <v>150</v>
+        <v>162</v>
       </c>
       <c r="P45" t="n">
         <v>5</v>
@@ -5448,56 +5863,60 @@
         <v>0</v>
       </c>
       <c r="W45" t="s">
-        <v>411</v>
+        <v>454</v>
       </c>
       <c r="X45" t="s">
-        <v>412</v>
+        <v>455</v>
       </c>
       <c r="Y45" t="s">
-        <v>413</v>
+        <v>456</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
         <v>20384</v>
       </c>
-      <c r="B46" t="s"/>
-      <c r="C46" t="s"/>
+      <c r="B46" t="n">
+        <v>28602</v>
+      </c>
+      <c r="C46" t="s">
+        <v>457</v>
+      </c>
       <c r="D46" t="n">
         <v>45</v>
       </c>
       <c r="E46" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F46" t="s">
-        <v>414</v>
+        <v>458</v>
       </c>
       <c r="G46" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H46" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I46" t="s">
-        <v>415</v>
+        <v>459</v>
       </c>
       <c r="J46" t="s">
-        <v>416</v>
+        <v>460</v>
       </c>
       <c r="K46" t="s">
-        <v>417</v>
+        <v>461</v>
       </c>
       <c r="L46" t="s">
-        <v>418</v>
+        <v>462</v>
       </c>
       <c r="M46" t="n">
         <v>4</v>
       </c>
       <c r="N46" t="s">
-        <v>384</v>
+        <v>424</v>
       </c>
       <c r="O46" t="s">
-        <v>318</v>
+        <v>349</v>
       </c>
       <c r="P46" t="n">
         <v>4</v>
@@ -5513,56 +5932,60 @@
         <v>0</v>
       </c>
       <c r="W46" t="s">
-        <v>419</v>
+        <v>463</v>
       </c>
       <c r="X46" t="s">
-        <v>420</v>
+        <v>464</v>
       </c>
       <c r="Y46" t="s">
-        <v>421</v>
+        <v>465</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
         <v>20384</v>
       </c>
-      <c r="B47" t="s"/>
-      <c r="C47" t="s"/>
+      <c r="B47" t="n">
+        <v>126935</v>
+      </c>
+      <c r="C47" t="s">
+        <v>466</v>
+      </c>
       <c r="D47" t="n">
         <v>46</v>
       </c>
       <c r="E47" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F47" t="s">
-        <v>422</v>
+        <v>467</v>
       </c>
       <c r="G47" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H47" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I47" t="s">
-        <v>423</v>
+        <v>468</v>
       </c>
       <c r="J47" t="s">
-        <v>424</v>
+        <v>469</v>
       </c>
       <c r="K47" t="s">
-        <v>425</v>
+        <v>470</v>
       </c>
       <c r="L47" t="s">
-        <v>426</v>
+        <v>471</v>
       </c>
       <c r="M47" t="n">
         <v>5</v>
       </c>
       <c r="N47" t="s">
-        <v>427</v>
+        <v>472</v>
       </c>
       <c r="O47" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="P47" t="s"/>
       <c r="Q47" t="n">
@@ -5580,56 +6003,60 @@
         <v>0</v>
       </c>
       <c r="W47" t="s">
-        <v>428</v>
+        <v>473</v>
       </c>
       <c r="X47" t="s">
-        <v>429</v>
+        <v>474</v>
       </c>
       <c r="Y47" t="s">
-        <v>430</v>
+        <v>475</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
         <v>20384</v>
       </c>
-      <c r="B48" t="s"/>
-      <c r="C48" t="s"/>
+      <c r="B48" t="n">
+        <v>3451</v>
+      </c>
+      <c r="C48" t="s">
+        <v>476</v>
+      </c>
       <c r="D48" t="n">
         <v>47</v>
       </c>
       <c r="E48" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F48" t="s">
-        <v>431</v>
+        <v>477</v>
       </c>
       <c r="G48" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H48" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I48" t="s">
-        <v>432</v>
+        <v>478</v>
       </c>
       <c r="J48" t="s">
-        <v>433</v>
+        <v>479</v>
       </c>
       <c r="K48" t="s">
-        <v>434</v>
+        <v>480</v>
       </c>
       <c r="L48" t="s">
-        <v>435</v>
+        <v>481</v>
       </c>
       <c r="M48" t="n">
         <v>3</v>
       </c>
       <c r="N48" t="s">
-        <v>384</v>
+        <v>424</v>
       </c>
       <c r="O48" t="s">
-        <v>131</v>
+        <v>141</v>
       </c>
       <c r="P48" t="s"/>
       <c r="Q48" t="s"/>
@@ -5645,56 +6072,60 @@
         <v>0</v>
       </c>
       <c r="W48" t="s">
-        <v>436</v>
+        <v>482</v>
       </c>
       <c r="X48" t="s">
-        <v>437</v>
+        <v>483</v>
       </c>
       <c r="Y48" t="s">
-        <v>438</v>
+        <v>484</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
         <v>20384</v>
       </c>
-      <c r="B49" t="s"/>
-      <c r="C49" t="s"/>
+      <c r="B49" t="n">
+        <v>126936</v>
+      </c>
+      <c r="C49" t="s">
+        <v>485</v>
+      </c>
       <c r="D49" t="n">
         <v>48</v>
       </c>
       <c r="E49" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F49" t="s">
-        <v>439</v>
+        <v>486</v>
       </c>
       <c r="G49" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H49" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I49" t="s">
-        <v>440</v>
+        <v>487</v>
       </c>
       <c r="J49" t="s">
-        <v>441</v>
+        <v>488</v>
       </c>
       <c r="K49" t="s">
-        <v>442</v>
+        <v>489</v>
       </c>
       <c r="L49" t="s">
-        <v>443</v>
+        <v>490</v>
       </c>
       <c r="M49" t="n">
         <v>5</v>
       </c>
       <c r="N49" t="s">
-        <v>427</v>
+        <v>472</v>
       </c>
       <c r="O49" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="P49" t="n">
         <v>4</v>
@@ -5712,56 +6143,60 @@
         <v>0</v>
       </c>
       <c r="W49" t="s">
-        <v>436</v>
+        <v>482</v>
       </c>
       <c r="X49" t="s">
-        <v>437</v>
+        <v>483</v>
       </c>
       <c r="Y49" t="s">
-        <v>444</v>
+        <v>491</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
         <v>20384</v>
       </c>
-      <c r="B50" t="s"/>
-      <c r="C50" t="s"/>
+      <c r="B50" t="n">
+        <v>126937</v>
+      </c>
+      <c r="C50" t="s">
+        <v>492</v>
+      </c>
       <c r="D50" t="n">
         <v>49</v>
       </c>
       <c r="E50" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F50" t="s">
-        <v>445</v>
+        <v>493</v>
       </c>
       <c r="G50" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H50" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I50" t="s">
-        <v>446</v>
+        <v>494</v>
       </c>
       <c r="J50" t="s">
-        <v>447</v>
+        <v>495</v>
       </c>
       <c r="K50" t="s">
-        <v>448</v>
+        <v>496</v>
       </c>
       <c r="L50" t="s">
-        <v>449</v>
+        <v>497</v>
       </c>
       <c r="M50" t="n">
         <v>4</v>
       </c>
       <c r="N50" t="s">
-        <v>427</v>
+        <v>472</v>
       </c>
       <c r="O50" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P50" t="s"/>
       <c r="Q50" t="s"/>
@@ -5775,50 +6210,54 @@
       <c r="W50" t="s"/>
       <c r="X50" t="s"/>
       <c r="Y50" t="s">
-        <v>449</v>
+        <v>497</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
         <v>20384</v>
       </c>
-      <c r="B51" t="s"/>
-      <c r="C51" t="s"/>
+      <c r="B51" t="n">
+        <v>126938</v>
+      </c>
+      <c r="C51" t="s">
+        <v>498</v>
+      </c>
       <c r="D51" t="n">
         <v>50</v>
       </c>
       <c r="E51" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F51" t="s">
-        <v>450</v>
+        <v>499</v>
       </c>
       <c r="G51" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H51" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I51" t="s">
-        <v>451</v>
+        <v>500</v>
       </c>
       <c r="J51" t="s">
-        <v>447</v>
+        <v>495</v>
       </c>
       <c r="K51" t="s">
-        <v>452</v>
+        <v>501</v>
       </c>
       <c r="L51" t="s">
-        <v>453</v>
+        <v>502</v>
       </c>
       <c r="M51" t="n">
         <v>4</v>
       </c>
       <c r="N51" t="s">
-        <v>427</v>
+        <v>472</v>
       </c>
       <c r="O51" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P51" t="n">
         <v>4</v>
@@ -5836,56 +6275,60 @@
         <v>0</v>
       </c>
       <c r="W51" t="s">
-        <v>454</v>
+        <v>503</v>
       </c>
       <c r="X51" t="s">
-        <v>455</v>
+        <v>504</v>
       </c>
       <c r="Y51" t="s">
-        <v>456</v>
+        <v>505</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
         <v>20384</v>
       </c>
-      <c r="B52" t="s"/>
-      <c r="C52" t="s"/>
+      <c r="B52" t="n">
+        <v>126939</v>
+      </c>
+      <c r="C52" t="s">
+        <v>506</v>
+      </c>
       <c r="D52" t="n">
         <v>51</v>
       </c>
       <c r="E52" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F52" t="s">
-        <v>457</v>
+        <v>507</v>
       </c>
       <c r="G52" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H52" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I52" t="s">
-        <v>458</v>
+        <v>508</v>
       </c>
       <c r="J52" t="s">
-        <v>459</v>
+        <v>509</v>
       </c>
       <c r="K52" t="s">
-        <v>460</v>
+        <v>510</v>
       </c>
       <c r="L52" t="s">
-        <v>461</v>
+        <v>511</v>
       </c>
       <c r="M52" t="n">
         <v>4</v>
       </c>
       <c r="N52" t="s">
-        <v>410</v>
+        <v>453</v>
       </c>
       <c r="O52" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P52" t="n">
         <v>4</v>
@@ -5903,56 +6346,60 @@
         <v>0</v>
       </c>
       <c r="W52" t="s">
-        <v>462</v>
+        <v>512</v>
       </c>
       <c r="X52" t="s">
-        <v>463</v>
+        <v>513</v>
       </c>
       <c r="Y52" t="s">
-        <v>464</v>
+        <v>514</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
         <v>20384</v>
       </c>
-      <c r="B53" t="s"/>
-      <c r="C53" t="s"/>
+      <c r="B53" t="n">
+        <v>4575</v>
+      </c>
+      <c r="C53" t="s">
+        <v>515</v>
+      </c>
       <c r="D53" t="n">
         <v>52</v>
       </c>
       <c r="E53" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F53" t="s">
-        <v>465</v>
+        <v>516</v>
       </c>
       <c r="G53" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H53" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I53" t="s">
-        <v>466</v>
+        <v>517</v>
       </c>
       <c r="J53" t="s">
-        <v>467</v>
+        <v>518</v>
       </c>
       <c r="K53" t="s">
-        <v>468</v>
+        <v>519</v>
       </c>
       <c r="L53" t="s">
-        <v>469</v>
+        <v>520</v>
       </c>
       <c r="M53" t="n">
         <v>5</v>
       </c>
       <c r="N53" t="s">
-        <v>410</v>
+        <v>453</v>
       </c>
       <c r="O53" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P53" t="s"/>
       <c r="Q53" t="n">
@@ -5970,56 +6417,60 @@
         <v>0</v>
       </c>
       <c r="W53" t="s">
-        <v>462</v>
+        <v>512</v>
       </c>
       <c r="X53" t="s">
-        <v>463</v>
+        <v>513</v>
       </c>
       <c r="Y53" t="s">
-        <v>470</v>
+        <v>521</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
         <v>20384</v>
       </c>
-      <c r="B54" t="s"/>
-      <c r="C54" t="s"/>
+      <c r="B54" t="n">
+        <v>126940</v>
+      </c>
+      <c r="C54" t="s">
+        <v>522</v>
+      </c>
       <c r="D54" t="n">
         <v>53</v>
       </c>
       <c r="E54" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F54" t="s">
-        <v>471</v>
+        <v>523</v>
       </c>
       <c r="G54" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H54" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I54" t="s">
-        <v>472</v>
+        <v>524</v>
       </c>
       <c r="J54" t="s">
-        <v>473</v>
+        <v>525</v>
       </c>
       <c r="K54" t="s">
-        <v>474</v>
+        <v>526</v>
       </c>
       <c r="L54" t="s">
-        <v>475</v>
+        <v>527</v>
       </c>
       <c r="M54" t="n">
         <v>5</v>
       </c>
       <c r="N54" t="s">
-        <v>410</v>
+        <v>453</v>
       </c>
       <c r="O54" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="P54" t="s"/>
       <c r="Q54" t="s"/>
@@ -6035,56 +6486,60 @@
         <v>0</v>
       </c>
       <c r="W54" t="s">
-        <v>476</v>
+        <v>528</v>
       </c>
       <c r="X54" t="s">
-        <v>477</v>
+        <v>529</v>
       </c>
       <c r="Y54" t="s">
-        <v>478</v>
+        <v>530</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
         <v>20384</v>
       </c>
-      <c r="B55" t="s"/>
-      <c r="C55" t="s"/>
+      <c r="B55" t="n">
+        <v>126941</v>
+      </c>
+      <c r="C55" t="s">
+        <v>531</v>
+      </c>
       <c r="D55" t="n">
         <v>54</v>
       </c>
       <c r="E55" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F55" t="s">
-        <v>479</v>
+        <v>532</v>
       </c>
       <c r="G55" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H55" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I55" t="s">
-        <v>480</v>
+        <v>533</v>
       </c>
       <c r="J55" t="s">
-        <v>481</v>
+        <v>534</v>
       </c>
       <c r="K55" t="s">
-        <v>482</v>
+        <v>535</v>
       </c>
       <c r="L55" t="s">
-        <v>483</v>
+        <v>536</v>
       </c>
       <c r="M55" t="n">
         <v>3</v>
       </c>
       <c r="N55" t="s">
-        <v>484</v>
+        <v>537</v>
       </c>
       <c r="O55" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="P55" t="s"/>
       <c r="Q55" t="s"/>
@@ -6102,56 +6557,60 @@
         <v>0</v>
       </c>
       <c r="W55" t="s">
-        <v>485</v>
+        <v>538</v>
       </c>
       <c r="X55" t="s">
-        <v>486</v>
+        <v>539</v>
       </c>
       <c r="Y55" t="s">
-        <v>487</v>
+        <v>540</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
         <v>20384</v>
       </c>
-      <c r="B56" t="s"/>
-      <c r="C56" t="s"/>
+      <c r="B56" t="n">
+        <v>32595</v>
+      </c>
+      <c r="C56" t="s">
+        <v>541</v>
+      </c>
       <c r="D56" t="n">
         <v>55</v>
       </c>
       <c r="E56" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F56" t="s">
-        <v>488</v>
+        <v>542</v>
       </c>
       <c r="G56" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H56" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I56" t="s">
-        <v>489</v>
+        <v>543</v>
       </c>
       <c r="J56" t="s">
-        <v>490</v>
+        <v>544</v>
       </c>
       <c r="K56" t="s">
-        <v>491</v>
+        <v>545</v>
       </c>
       <c r="L56" t="s">
-        <v>492</v>
+        <v>546</v>
       </c>
       <c r="M56" t="n">
         <v>3</v>
       </c>
       <c r="N56" t="s">
-        <v>493</v>
+        <v>547</v>
       </c>
       <c r="O56" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="P56" t="s"/>
       <c r="Q56" t="s"/>
@@ -6167,56 +6626,60 @@
         <v>0</v>
       </c>
       <c r="W56" t="s">
-        <v>494</v>
+        <v>548</v>
       </c>
       <c r="X56" t="s">
-        <v>495</v>
+        <v>549</v>
       </c>
       <c r="Y56" t="s">
-        <v>496</v>
+        <v>550</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
         <v>20384</v>
       </c>
-      <c r="B57" t="s"/>
-      <c r="C57" t="s"/>
+      <c r="B57" t="n">
+        <v>126942</v>
+      </c>
+      <c r="C57" t="s">
+        <v>551</v>
+      </c>
       <c r="D57" t="n">
         <v>56</v>
       </c>
       <c r="E57" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F57" t="s">
-        <v>497</v>
+        <v>552</v>
       </c>
       <c r="G57" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H57" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I57" t="s">
-        <v>498</v>
+        <v>553</v>
       </c>
       <c r="J57" t="s">
-        <v>499</v>
+        <v>554</v>
       </c>
       <c r="K57" t="s">
-        <v>500</v>
+        <v>555</v>
       </c>
       <c r="L57" t="s">
-        <v>501</v>
+        <v>556</v>
       </c>
       <c r="M57" t="n">
         <v>4</v>
       </c>
       <c r="N57" t="s">
-        <v>502</v>
+        <v>557</v>
       </c>
       <c r="O57" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P57" t="s"/>
       <c r="Q57" t="s"/>
@@ -6228,56 +6691,60 @@
         <v>0</v>
       </c>
       <c r="W57" t="s">
-        <v>503</v>
+        <v>558</v>
       </c>
       <c r="X57" t="s">
-        <v>504</v>
+        <v>559</v>
       </c>
       <c r="Y57" t="s">
-        <v>505</v>
+        <v>560</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
         <v>20384</v>
       </c>
-      <c r="B58" t="s"/>
-      <c r="C58" t="s"/>
+      <c r="B58" t="n">
+        <v>565</v>
+      </c>
+      <c r="C58" t="s">
+        <v>561</v>
+      </c>
       <c r="D58" t="n">
         <v>57</v>
       </c>
       <c r="E58" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F58" t="s">
-        <v>506</v>
+        <v>562</v>
       </c>
       <c r="G58" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H58" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I58" t="s">
-        <v>507</v>
+        <v>563</v>
       </c>
       <c r="J58" t="s">
-        <v>508</v>
+        <v>564</v>
       </c>
       <c r="K58" t="s">
-        <v>509</v>
+        <v>565</v>
       </c>
       <c r="L58" t="s">
-        <v>510</v>
+        <v>566</v>
       </c>
       <c r="M58" t="n">
         <v>5</v>
       </c>
       <c r="N58" t="s">
-        <v>502</v>
+        <v>557</v>
       </c>
       <c r="O58" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P58" t="s"/>
       <c r="Q58" t="s"/>
@@ -6289,56 +6756,60 @@
         <v>0</v>
       </c>
       <c r="W58" t="s">
-        <v>511</v>
+        <v>567</v>
       </c>
       <c r="X58" t="s">
-        <v>512</v>
+        <v>568</v>
       </c>
       <c r="Y58" t="s">
-        <v>513</v>
+        <v>569</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
         <v>20384</v>
       </c>
-      <c r="B59" t="s"/>
-      <c r="C59" t="s"/>
+      <c r="B59" t="n">
+        <v>126943</v>
+      </c>
+      <c r="C59" t="s">
+        <v>570</v>
+      </c>
       <c r="D59" t="n">
         <v>58</v>
       </c>
       <c r="E59" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F59" t="s">
-        <v>514</v>
+        <v>571</v>
       </c>
       <c r="G59" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H59" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I59" t="s">
-        <v>515</v>
+        <v>572</v>
       </c>
       <c r="J59" t="s">
-        <v>516</v>
+        <v>573</v>
       </c>
       <c r="K59" t="s">
-        <v>517</v>
+        <v>574</v>
       </c>
       <c r="L59" t="s">
-        <v>518</v>
+        <v>575</v>
       </c>
       <c r="M59" t="n">
         <v>4</v>
       </c>
       <c r="N59" t="s">
-        <v>519</v>
+        <v>576</v>
       </c>
       <c r="O59" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P59" t="s"/>
       <c r="Q59" t="s"/>
@@ -6350,56 +6821,60 @@
         <v>0</v>
       </c>
       <c r="W59" t="s">
-        <v>520</v>
+        <v>577</v>
       </c>
       <c r="X59" t="s">
-        <v>521</v>
+        <v>578</v>
       </c>
       <c r="Y59" t="s">
-        <v>522</v>
+        <v>579</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
         <v>20384</v>
       </c>
-      <c r="B60" t="s"/>
-      <c r="C60" t="s"/>
+      <c r="B60" t="n">
+        <v>1551</v>
+      </c>
+      <c r="C60" t="s">
+        <v>580</v>
+      </c>
       <c r="D60" t="n">
         <v>59</v>
       </c>
       <c r="E60" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F60" t="s">
-        <v>523</v>
+        <v>581</v>
       </c>
       <c r="G60" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H60" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I60" t="s">
-        <v>524</v>
+        <v>582</v>
       </c>
       <c r="J60" t="s">
-        <v>525</v>
+        <v>583</v>
       </c>
       <c r="K60" t="s">
-        <v>526</v>
+        <v>584</v>
       </c>
       <c r="L60" t="s">
-        <v>527</v>
+        <v>585</v>
       </c>
       <c r="M60" t="n">
         <v>3</v>
       </c>
       <c r="N60" t="s">
-        <v>519</v>
+        <v>576</v>
       </c>
       <c r="O60" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P60" t="s"/>
       <c r="Q60" t="n">
@@ -6417,56 +6892,60 @@
         <v>0</v>
       </c>
       <c r="W60" t="s">
-        <v>528</v>
+        <v>586</v>
       </c>
       <c r="X60" t="s">
-        <v>529</v>
+        <v>587</v>
       </c>
       <c r="Y60" t="s">
-        <v>530</v>
+        <v>588</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
         <v>20384</v>
       </c>
-      <c r="B61" t="s"/>
-      <c r="C61" t="s"/>
+      <c r="B61" t="n">
+        <v>126944</v>
+      </c>
+      <c r="C61" t="s">
+        <v>589</v>
+      </c>
       <c r="D61" t="n">
         <v>60</v>
       </c>
       <c r="E61" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F61" t="s">
-        <v>531</v>
+        <v>590</v>
       </c>
       <c r="G61" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H61" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I61" t="s">
-        <v>532</v>
+        <v>591</v>
       </c>
       <c r="J61" t="s">
-        <v>525</v>
+        <v>583</v>
       </c>
       <c r="K61" t="s">
-        <v>533</v>
+        <v>592</v>
       </c>
       <c r="L61" t="s">
-        <v>534</v>
+        <v>593</v>
       </c>
       <c r="M61" t="n">
         <v>4</v>
       </c>
       <c r="N61" t="s">
-        <v>519</v>
+        <v>576</v>
       </c>
       <c r="O61" t="s">
-        <v>150</v>
+        <v>162</v>
       </c>
       <c r="P61" t="s"/>
       <c r="Q61" t="s"/>
@@ -6478,56 +6957,60 @@
         <v>0</v>
       </c>
       <c r="W61" t="s">
-        <v>535</v>
+        <v>594</v>
       </c>
       <c r="X61" t="s">
-        <v>536</v>
+        <v>595</v>
       </c>
       <c r="Y61" t="s">
-        <v>537</v>
+        <v>596</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
         <v>20384</v>
       </c>
-      <c r="B62" t="s"/>
-      <c r="C62" t="s"/>
+      <c r="B62" t="n">
+        <v>29479</v>
+      </c>
+      <c r="C62" t="s">
+        <v>597</v>
+      </c>
       <c r="D62" t="n">
         <v>61</v>
       </c>
       <c r="E62" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F62" t="s">
-        <v>538</v>
+        <v>598</v>
       </c>
       <c r="G62" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H62" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I62" t="s">
-        <v>539</v>
+        <v>599</v>
       </c>
       <c r="J62" t="s">
-        <v>540</v>
+        <v>600</v>
       </c>
       <c r="K62" t="s">
-        <v>541</v>
+        <v>601</v>
       </c>
       <c r="L62" t="s">
-        <v>542</v>
+        <v>602</v>
       </c>
       <c r="M62" t="n">
         <v>5</v>
       </c>
       <c r="N62" t="s">
-        <v>519</v>
+        <v>576</v>
       </c>
       <c r="O62" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P62" t="s"/>
       <c r="Q62" t="s"/>
@@ -6539,56 +7022,60 @@
         <v>0</v>
       </c>
       <c r="W62" t="s">
-        <v>543</v>
+        <v>603</v>
       </c>
       <c r="X62" t="s">
-        <v>544</v>
+        <v>604</v>
       </c>
       <c r="Y62" t="s">
-        <v>545</v>
+        <v>605</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
         <v>20384</v>
       </c>
-      <c r="B63" t="s"/>
-      <c r="C63" t="s"/>
+      <c r="B63" t="n">
+        <v>126945</v>
+      </c>
+      <c r="C63" t="s">
+        <v>606</v>
+      </c>
       <c r="D63" t="n">
         <v>62</v>
       </c>
       <c r="E63" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F63" t="s">
-        <v>546</v>
+        <v>607</v>
       </c>
       <c r="G63" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H63" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I63" t="s">
-        <v>547</v>
+        <v>608</v>
       </c>
       <c r="J63" t="s">
-        <v>548</v>
+        <v>609</v>
       </c>
       <c r="K63" t="s">
-        <v>549</v>
+        <v>610</v>
       </c>
       <c r="L63" t="s">
-        <v>550</v>
+        <v>611</v>
       </c>
       <c r="M63" t="n">
         <v>5</v>
       </c>
       <c r="N63" t="s">
-        <v>519</v>
+        <v>576</v>
       </c>
       <c r="O63" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P63" t="s"/>
       <c r="Q63" t="n">
@@ -6606,56 +7093,60 @@
         <v>0</v>
       </c>
       <c r="W63" t="s">
-        <v>551</v>
+        <v>612</v>
       </c>
       <c r="X63" t="s">
-        <v>552</v>
+        <v>613</v>
       </c>
       <c r="Y63" t="s">
-        <v>553</v>
+        <v>614</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
         <v>20384</v>
       </c>
-      <c r="B64" t="s"/>
-      <c r="C64" t="s"/>
+      <c r="B64" t="n">
+        <v>126946</v>
+      </c>
+      <c r="C64" t="s">
+        <v>615</v>
+      </c>
       <c r="D64" t="n">
         <v>63</v>
       </c>
       <c r="E64" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F64" t="s">
-        <v>554</v>
+        <v>616</v>
       </c>
       <c r="G64" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H64" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I64" t="s">
-        <v>555</v>
+        <v>617</v>
       </c>
       <c r="J64" t="s">
-        <v>548</v>
+        <v>609</v>
       </c>
       <c r="K64" t="s">
-        <v>556</v>
+        <v>618</v>
       </c>
       <c r="L64" t="s">
-        <v>557</v>
+        <v>619</v>
       </c>
       <c r="M64" t="n">
         <v>4</v>
       </c>
       <c r="N64" t="s">
-        <v>519</v>
+        <v>576</v>
       </c>
       <c r="O64" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P64" t="s"/>
       <c r="Q64" t="s"/>
@@ -6673,56 +7164,60 @@
         <v>0</v>
       </c>
       <c r="W64" t="s">
-        <v>551</v>
+        <v>612</v>
       </c>
       <c r="X64" t="s">
-        <v>552</v>
+        <v>613</v>
       </c>
       <c r="Y64" t="s">
-        <v>558</v>
+        <v>620</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
         <v>20384</v>
       </c>
-      <c r="B65" t="s"/>
-      <c r="C65" t="s"/>
+      <c r="B65" t="n">
+        <v>126947</v>
+      </c>
+      <c r="C65" t="s">
+        <v>621</v>
+      </c>
       <c r="D65" t="n">
         <v>64</v>
       </c>
       <c r="E65" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F65" t="s">
-        <v>559</v>
+        <v>622</v>
       </c>
       <c r="G65" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H65" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I65" t="s">
-        <v>560</v>
+        <v>623</v>
       </c>
       <c r="J65" t="s">
-        <v>561</v>
+        <v>624</v>
       </c>
       <c r="K65" t="s">
-        <v>562</v>
+        <v>625</v>
       </c>
       <c r="L65" t="s">
-        <v>563</v>
+        <v>626</v>
       </c>
       <c r="M65" t="n">
         <v>5</v>
       </c>
       <c r="N65" t="s">
-        <v>519</v>
+        <v>576</v>
       </c>
       <c r="O65" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P65" t="s"/>
       <c r="Q65" t="s"/>
@@ -6740,56 +7235,60 @@
         <v>0</v>
       </c>
       <c r="W65" t="s">
-        <v>564</v>
+        <v>627</v>
       </c>
       <c r="X65" t="s">
-        <v>565</v>
+        <v>628</v>
       </c>
       <c r="Y65" t="s">
-        <v>566</v>
+        <v>629</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
         <v>20384</v>
       </c>
-      <c r="B66" t="s"/>
-      <c r="C66" t="s"/>
+      <c r="B66" t="n">
+        <v>126948</v>
+      </c>
+      <c r="C66" t="s">
+        <v>630</v>
+      </c>
       <c r="D66" t="n">
         <v>65</v>
       </c>
       <c r="E66" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F66" t="s">
-        <v>567</v>
+        <v>631</v>
       </c>
       <c r="G66" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H66" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I66" t="s">
-        <v>568</v>
+        <v>632</v>
       </c>
       <c r="J66" t="s">
-        <v>569</v>
+        <v>633</v>
       </c>
       <c r="K66" t="s">
-        <v>570</v>
+        <v>634</v>
       </c>
       <c r="L66" t="s">
-        <v>571</v>
+        <v>635</v>
       </c>
       <c r="M66" t="n">
         <v>5</v>
       </c>
       <c r="N66" t="s">
-        <v>519</v>
+        <v>576</v>
       </c>
       <c r="O66" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P66" t="s"/>
       <c r="Q66" t="s"/>
@@ -6801,56 +7300,60 @@
         <v>0</v>
       </c>
       <c r="W66" t="s">
-        <v>564</v>
+        <v>627</v>
       </c>
       <c r="X66" t="s">
-        <v>565</v>
+        <v>628</v>
       </c>
       <c r="Y66" t="s">
-        <v>572</v>
+        <v>636</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
         <v>20384</v>
       </c>
-      <c r="B67" t="s"/>
-      <c r="C67" t="s"/>
+      <c r="B67" t="n">
+        <v>126949</v>
+      </c>
+      <c r="C67" t="s">
+        <v>637</v>
+      </c>
       <c r="D67" t="n">
         <v>66</v>
       </c>
       <c r="E67" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F67" t="s">
-        <v>573</v>
+        <v>638</v>
       </c>
       <c r="G67" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H67" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I67" t="s">
-        <v>574</v>
+        <v>639</v>
       </c>
       <c r="J67" t="s">
-        <v>575</v>
+        <v>640</v>
       </c>
       <c r="K67" t="s">
-        <v>576</v>
+        <v>641</v>
       </c>
       <c r="L67" t="s">
-        <v>577</v>
+        <v>642</v>
       </c>
       <c r="M67" t="n">
         <v>3</v>
       </c>
       <c r="N67" t="s">
-        <v>578</v>
+        <v>643</v>
       </c>
       <c r="O67" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P67" t="s"/>
       <c r="Q67" t="s"/>
@@ -6864,56 +7367,60 @@
         <v>0</v>
       </c>
       <c r="W67" t="s">
-        <v>579</v>
+        <v>644</v>
       </c>
       <c r="X67" t="s">
-        <v>580</v>
+        <v>645</v>
       </c>
       <c r="Y67" t="s">
-        <v>581</v>
+        <v>646</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
         <v>20384</v>
       </c>
-      <c r="B68" t="s"/>
-      <c r="C68" t="s"/>
+      <c r="B68" t="n">
+        <v>43068</v>
+      </c>
+      <c r="C68" t="s">
+        <v>647</v>
+      </c>
       <c r="D68" t="n">
         <v>67</v>
       </c>
       <c r="E68" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F68" t="s">
-        <v>582</v>
+        <v>648</v>
       </c>
       <c r="G68" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H68" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I68" t="s">
-        <v>583</v>
+        <v>649</v>
       </c>
       <c r="J68" t="s">
-        <v>584</v>
+        <v>650</v>
       </c>
       <c r="K68" t="s">
-        <v>585</v>
+        <v>651</v>
       </c>
       <c r="L68" t="s">
-        <v>586</v>
+        <v>652</v>
       </c>
       <c r="M68" t="n">
         <v>4</v>
       </c>
       <c r="N68" t="s">
-        <v>587</v>
+        <v>653</v>
       </c>
       <c r="O68" t="s">
-        <v>131</v>
+        <v>141</v>
       </c>
       <c r="P68" t="s"/>
       <c r="Q68" t="s"/>
@@ -6929,56 +7436,60 @@
         <v>0</v>
       </c>
       <c r="W68" t="s">
-        <v>588</v>
+        <v>654</v>
       </c>
       <c r="X68" t="s">
-        <v>589</v>
+        <v>655</v>
       </c>
       <c r="Y68" t="s">
-        <v>590</v>
+        <v>656</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
         <v>20384</v>
       </c>
-      <c r="B69" t="s"/>
-      <c r="C69" t="s"/>
+      <c r="B69" t="n">
+        <v>126950</v>
+      </c>
+      <c r="C69" t="s">
+        <v>657</v>
+      </c>
       <c r="D69" t="n">
         <v>68</v>
       </c>
       <c r="E69" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F69" t="s">
-        <v>591</v>
+        <v>658</v>
       </c>
       <c r="G69" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H69" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I69" t="s">
-        <v>592</v>
+        <v>659</v>
       </c>
       <c r="J69" t="s">
-        <v>584</v>
+        <v>650</v>
       </c>
       <c r="K69" t="s">
-        <v>593</v>
+        <v>660</v>
       </c>
       <c r="L69" t="s">
-        <v>594</v>
+        <v>661</v>
       </c>
       <c r="M69" t="n">
         <v>4</v>
       </c>
       <c r="N69" t="s">
-        <v>587</v>
+        <v>653</v>
       </c>
       <c r="O69" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="P69" t="s"/>
       <c r="Q69" t="s"/>
@@ -6996,56 +7507,60 @@
         <v>0</v>
       </c>
       <c r="W69" t="s">
-        <v>588</v>
+        <v>654</v>
       </c>
       <c r="X69" t="s">
-        <v>589</v>
+        <v>655</v>
       </c>
       <c r="Y69" t="s">
-        <v>595</v>
+        <v>662</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
         <v>20384</v>
       </c>
-      <c r="B70" t="s"/>
-      <c r="C70" t="s"/>
+      <c r="B70" t="n">
+        <v>126951</v>
+      </c>
+      <c r="C70" t="s">
+        <v>663</v>
+      </c>
       <c r="D70" t="n">
         <v>69</v>
       </c>
       <c r="E70" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F70" t="s">
-        <v>596</v>
+        <v>664</v>
       </c>
       <c r="G70" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H70" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I70" t="s">
-        <v>597</v>
+        <v>665</v>
       </c>
       <c r="J70" t="s">
-        <v>598</v>
+        <v>666</v>
       </c>
       <c r="K70" t="s">
-        <v>599</v>
+        <v>667</v>
       </c>
       <c r="L70" t="s">
-        <v>600</v>
+        <v>668</v>
       </c>
       <c r="M70" t="n">
         <v>1</v>
       </c>
       <c r="N70" t="s">
-        <v>587</v>
+        <v>653</v>
       </c>
       <c r="O70" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="P70" t="s"/>
       <c r="Q70" t="s"/>
@@ -7059,56 +7574,60 @@
         <v>0</v>
       </c>
       <c r="W70" t="s">
-        <v>601</v>
+        <v>669</v>
       </c>
       <c r="X70" t="s">
-        <v>602</v>
+        <v>670</v>
       </c>
       <c r="Y70" t="s">
-        <v>603</v>
+        <v>671</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
         <v>20384</v>
       </c>
-      <c r="B71" t="s"/>
-      <c r="C71" t="s"/>
+      <c r="B71" t="n">
+        <v>126952</v>
+      </c>
+      <c r="C71" t="s">
+        <v>672</v>
+      </c>
       <c r="D71" t="n">
         <v>70</v>
       </c>
       <c r="E71" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F71" t="s">
-        <v>604</v>
+        <v>673</v>
       </c>
       <c r="G71" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H71" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I71" t="s">
-        <v>605</v>
+        <v>674</v>
       </c>
       <c r="J71" t="s">
-        <v>606</v>
+        <v>675</v>
       </c>
       <c r="K71" t="s">
-        <v>607</v>
+        <v>676</v>
       </c>
       <c r="L71" t="s">
-        <v>608</v>
+        <v>677</v>
       </c>
       <c r="M71" t="n">
         <v>4</v>
       </c>
       <c r="N71" t="s">
-        <v>609</v>
+        <v>678</v>
       </c>
       <c r="O71" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="P71" t="s"/>
       <c r="Q71" t="n">
@@ -7126,56 +7645,60 @@
         <v>0</v>
       </c>
       <c r="W71" t="s">
-        <v>610</v>
+        <v>679</v>
       </c>
       <c r="X71" t="s">
-        <v>611</v>
+        <v>680</v>
       </c>
       <c r="Y71" t="s">
-        <v>612</v>
+        <v>681</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
         <v>20384</v>
       </c>
-      <c r="B72" t="s"/>
-      <c r="C72" t="s"/>
+      <c r="B72" t="n">
+        <v>126953</v>
+      </c>
+      <c r="C72" t="s">
+        <v>682</v>
+      </c>
       <c r="D72" t="n">
         <v>71</v>
       </c>
       <c r="E72" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F72" t="s">
-        <v>613</v>
+        <v>683</v>
       </c>
       <c r="G72" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H72" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I72" t="s">
-        <v>614</v>
+        <v>684</v>
       </c>
       <c r="J72" t="s">
-        <v>615</v>
+        <v>685</v>
       </c>
       <c r="K72" t="s">
-        <v>616</v>
+        <v>686</v>
       </c>
       <c r="L72" t="s">
-        <v>617</v>
+        <v>687</v>
       </c>
       <c r="M72" t="n">
         <v>4</v>
       </c>
       <c r="N72" t="s">
-        <v>609</v>
+        <v>678</v>
       </c>
       <c r="O72" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P72" t="n">
         <v>4</v>
@@ -7193,56 +7716,60 @@
         <v>0</v>
       </c>
       <c r="W72" t="s">
-        <v>618</v>
+        <v>688</v>
       </c>
       <c r="X72" t="s">
-        <v>619</v>
+        <v>689</v>
       </c>
       <c r="Y72" t="s">
-        <v>620</v>
+        <v>690</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
         <v>20384</v>
       </c>
-      <c r="B73" t="s"/>
-      <c r="C73" t="s"/>
+      <c r="B73" t="n">
+        <v>126954</v>
+      </c>
+      <c r="C73" t="s">
+        <v>691</v>
+      </c>
       <c r="D73" t="n">
         <v>72</v>
       </c>
       <c r="E73" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F73" t="s">
-        <v>621</v>
+        <v>692</v>
       </c>
       <c r="G73" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H73" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I73" t="s">
-        <v>622</v>
+        <v>693</v>
       </c>
       <c r="J73" t="s">
-        <v>623</v>
+        <v>694</v>
       </c>
       <c r="K73" t="s">
-        <v>624</v>
+        <v>695</v>
       </c>
       <c r="L73" t="s">
-        <v>625</v>
+        <v>696</v>
       </c>
       <c r="M73" t="n">
         <v>5</v>
       </c>
       <c r="N73" t="s">
-        <v>609</v>
+        <v>678</v>
       </c>
       <c r="O73" t="s">
-        <v>131</v>
+        <v>141</v>
       </c>
       <c r="P73" t="s"/>
       <c r="Q73" t="n">
@@ -7258,56 +7785,60 @@
         <v>0</v>
       </c>
       <c r="W73" t="s">
-        <v>626</v>
+        <v>697</v>
       </c>
       <c r="X73" t="s">
-        <v>627</v>
+        <v>698</v>
       </c>
       <c r="Y73" t="s">
-        <v>628</v>
+        <v>699</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
         <v>20384</v>
       </c>
-      <c r="B74" t="s"/>
-      <c r="C74" t="s"/>
+      <c r="B74" t="n">
+        <v>29128</v>
+      </c>
+      <c r="C74" t="s">
+        <v>700</v>
+      </c>
       <c r="D74" t="n">
         <v>73</v>
       </c>
       <c r="E74" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F74" t="s">
-        <v>629</v>
+        <v>701</v>
       </c>
       <c r="G74" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H74" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I74" t="s">
-        <v>630</v>
+        <v>702</v>
       </c>
       <c r="J74" t="s">
-        <v>631</v>
+        <v>703</v>
       </c>
       <c r="K74" t="s">
-        <v>632</v>
+        <v>704</v>
       </c>
       <c r="L74" t="s">
-        <v>633</v>
+        <v>705</v>
       </c>
       <c r="M74" t="n">
         <v>5</v>
       </c>
       <c r="N74" t="s">
-        <v>634</v>
+        <v>706</v>
       </c>
       <c r="O74" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="P74" t="s"/>
       <c r="Q74" t="n">
@@ -7325,41 +7856,45 @@
         <v>0</v>
       </c>
       <c r="W74" t="s">
-        <v>635</v>
+        <v>707</v>
       </c>
       <c r="X74" t="s">
-        <v>636</v>
+        <v>708</v>
       </c>
       <c r="Y74" t="s">
-        <v>637</v>
+        <v>709</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
         <v>20384</v>
       </c>
-      <c r="B75" t="s"/>
-      <c r="C75" t="s"/>
+      <c r="B75" t="n">
+        <v>2129</v>
+      </c>
+      <c r="C75" t="s">
+        <v>710</v>
+      </c>
       <c r="D75" t="n">
         <v>74</v>
       </c>
       <c r="E75" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F75" t="s">
-        <v>638</v>
+        <v>711</v>
       </c>
       <c r="G75" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H75" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I75" t="s">
-        <v>639</v>
+        <v>712</v>
       </c>
       <c r="J75" t="s">
-        <v>640</v>
+        <v>713</v>
       </c>
       <c r="K75" t="s"/>
       <c r="L75" t="s"/>
@@ -7375,51 +7910,52 @@
       <c r="V75" t="n">
         <v>0</v>
       </c>
-      <c r="W75" t="s"/>
-      <c r="X75" t="s"/>
-      <c r="Y75" t="s"/>
     </row>
     <row r="76">
       <c r="A76" t="n">
         <v>20384</v>
       </c>
-      <c r="B76" t="s"/>
-      <c r="C76" t="s"/>
+      <c r="B76" t="n">
+        <v>126955</v>
+      </c>
+      <c r="C76" t="s">
+        <v>714</v>
+      </c>
       <c r="D76" t="n">
         <v>75</v>
       </c>
       <c r="E76" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F76" t="s">
-        <v>641</v>
+        <v>715</v>
       </c>
       <c r="G76" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H76" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I76" t="s">
-        <v>642</v>
+        <v>716</v>
       </c>
       <c r="J76" t="s">
-        <v>643</v>
+        <v>717</v>
       </c>
       <c r="K76" t="s">
-        <v>644</v>
+        <v>718</v>
       </c>
       <c r="L76" t="s">
-        <v>645</v>
+        <v>719</v>
       </c>
       <c r="M76" t="n">
         <v>4</v>
       </c>
       <c r="N76" t="s">
-        <v>646</v>
+        <v>720</v>
       </c>
       <c r="O76" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="P76" t="s"/>
       <c r="Q76" t="s"/>
@@ -7431,56 +7967,60 @@
         <v>0</v>
       </c>
       <c r="W76" t="s">
-        <v>647</v>
+        <v>721</v>
       </c>
       <c r="X76" t="s">
-        <v>648</v>
+        <v>722</v>
       </c>
       <c r="Y76" t="s">
-        <v>649</v>
+        <v>723</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="n">
         <v>20384</v>
       </c>
-      <c r="B77" t="s"/>
-      <c r="C77" t="s"/>
+      <c r="B77" t="n">
+        <v>126956</v>
+      </c>
+      <c r="C77" t="s">
+        <v>724</v>
+      </c>
       <c r="D77" t="n">
         <v>76</v>
       </c>
       <c r="E77" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F77" t="s">
-        <v>650</v>
+        <v>725</v>
       </c>
       <c r="G77" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H77" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I77" t="s">
-        <v>651</v>
+        <v>726</v>
       </c>
       <c r="J77" t="s">
-        <v>652</v>
+        <v>727</v>
       </c>
       <c r="K77" t="s">
-        <v>653</v>
+        <v>728</v>
       </c>
       <c r="L77" t="s">
-        <v>654</v>
+        <v>729</v>
       </c>
       <c r="M77" t="n">
         <v>4</v>
       </c>
       <c r="N77" t="s">
-        <v>655</v>
+        <v>730</v>
       </c>
       <c r="O77" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P77" t="n">
         <v>4</v>
@@ -7502,56 +8042,60 @@
         <v>0</v>
       </c>
       <c r="W77" t="s">
-        <v>656</v>
+        <v>731</v>
       </c>
       <c r="X77" t="s">
-        <v>657</v>
+        <v>732</v>
       </c>
       <c r="Y77" t="s">
-        <v>658</v>
+        <v>733</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="n">
         <v>20384</v>
       </c>
-      <c r="B78" t="s"/>
-      <c r="C78" t="s"/>
+      <c r="B78" t="n">
+        <v>6382</v>
+      </c>
+      <c r="C78" t="s">
+        <v>734</v>
+      </c>
       <c r="D78" t="n">
         <v>77</v>
       </c>
       <c r="E78" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F78" t="s">
-        <v>659</v>
+        <v>735</v>
       </c>
       <c r="G78" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H78" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I78" t="s">
-        <v>660</v>
+        <v>736</v>
       </c>
       <c r="J78" t="s">
-        <v>661</v>
+        <v>737</v>
       </c>
       <c r="K78" t="s">
-        <v>662</v>
+        <v>738</v>
       </c>
       <c r="L78" t="s">
-        <v>663</v>
+        <v>739</v>
       </c>
       <c r="M78" t="n">
         <v>4</v>
       </c>
       <c r="N78" t="s">
-        <v>655</v>
+        <v>730</v>
       </c>
       <c r="O78" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="P78" t="n">
         <v>5</v>
@@ -7573,56 +8117,60 @@
         <v>0</v>
       </c>
       <c r="W78" t="s">
-        <v>664</v>
+        <v>740</v>
       </c>
       <c r="X78" t="s">
-        <v>665</v>
+        <v>741</v>
       </c>
       <c r="Y78" t="s">
-        <v>666</v>
+        <v>742</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="n">
         <v>20384</v>
       </c>
-      <c r="B79" t="s"/>
-      <c r="C79" t="s"/>
+      <c r="B79" t="n">
+        <v>126957</v>
+      </c>
+      <c r="C79" t="s">
+        <v>743</v>
+      </c>
       <c r="D79" t="n">
         <v>78</v>
       </c>
       <c r="E79" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F79" t="s">
-        <v>667</v>
+        <v>744</v>
       </c>
       <c r="G79" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H79" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I79" t="s">
-        <v>668</v>
+        <v>745</v>
       </c>
       <c r="J79" t="s">
-        <v>669</v>
+        <v>746</v>
       </c>
       <c r="K79" t="s">
-        <v>670</v>
+        <v>747</v>
       </c>
       <c r="L79" t="s">
-        <v>671</v>
+        <v>748</v>
       </c>
       <c r="M79" t="n">
         <v>4</v>
       </c>
       <c r="N79" t="s">
-        <v>655</v>
+        <v>730</v>
       </c>
       <c r="O79" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P79" t="s"/>
       <c r="Q79" t="s"/>
@@ -7634,56 +8182,60 @@
         <v>0</v>
       </c>
       <c r="W79" t="s">
-        <v>672</v>
+        <v>749</v>
       </c>
       <c r="X79" t="s">
-        <v>673</v>
+        <v>750</v>
       </c>
       <c r="Y79" t="s">
-        <v>674</v>
+        <v>751</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="n">
         <v>20384</v>
       </c>
-      <c r="B80" t="s"/>
-      <c r="C80" t="s"/>
+      <c r="B80" t="n">
+        <v>126958</v>
+      </c>
+      <c r="C80" t="s">
+        <v>752</v>
+      </c>
       <c r="D80" t="n">
         <v>79</v>
       </c>
       <c r="E80" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F80" t="s">
-        <v>675</v>
+        <v>753</v>
       </c>
       <c r="G80" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H80" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I80" t="s">
-        <v>676</v>
+        <v>754</v>
       </c>
       <c r="J80" t="s">
-        <v>677</v>
+        <v>755</v>
       </c>
       <c r="K80" t="s">
-        <v>678</v>
+        <v>756</v>
       </c>
       <c r="L80" t="s">
-        <v>679</v>
+        <v>757</v>
       </c>
       <c r="M80" t="n">
         <v>4</v>
       </c>
       <c r="N80" t="s">
-        <v>655</v>
+        <v>730</v>
       </c>
       <c r="O80" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P80" t="n">
         <v>4</v>
@@ -7705,56 +8257,60 @@
         <v>0</v>
       </c>
       <c r="W80" t="s">
-        <v>680</v>
+        <v>758</v>
       </c>
       <c r="X80" t="s">
-        <v>681</v>
+        <v>759</v>
       </c>
       <c r="Y80" t="s">
-        <v>682</v>
+        <v>760</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="n">
         <v>20384</v>
       </c>
-      <c r="B81" t="s"/>
-      <c r="C81" t="s"/>
+      <c r="B81" t="n">
+        <v>70555</v>
+      </c>
+      <c r="C81" t="s">
+        <v>761</v>
+      </c>
       <c r="D81" t="n">
         <v>80</v>
       </c>
       <c r="E81" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F81" t="s">
-        <v>683</v>
+        <v>762</v>
       </c>
       <c r="G81" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H81" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I81" t="s">
-        <v>684</v>
+        <v>763</v>
       </c>
       <c r="J81" t="s">
-        <v>685</v>
+        <v>764</v>
       </c>
       <c r="K81" t="s">
-        <v>686</v>
+        <v>765</v>
       </c>
       <c r="L81" t="s">
-        <v>687</v>
+        <v>766</v>
       </c>
       <c r="M81" t="n">
         <v>4</v>
       </c>
       <c r="N81" t="s">
-        <v>688</v>
+        <v>767</v>
       </c>
       <c r="O81" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P81" t="n">
         <v>3</v>
@@ -7776,56 +8332,60 @@
         <v>0</v>
       </c>
       <c r="W81" t="s">
-        <v>689</v>
+        <v>768</v>
       </c>
       <c r="X81" t="s">
-        <v>690</v>
+        <v>769</v>
       </c>
       <c r="Y81" t="s">
-        <v>691</v>
+        <v>770</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="n">
         <v>20384</v>
       </c>
-      <c r="B82" t="s"/>
-      <c r="C82" t="s"/>
+      <c r="B82" t="n">
+        <v>126959</v>
+      </c>
+      <c r="C82" t="s">
+        <v>771</v>
+      </c>
       <c r="D82" t="n">
         <v>81</v>
       </c>
       <c r="E82" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F82" t="s">
-        <v>692</v>
+        <v>772</v>
       </c>
       <c r="G82" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H82" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I82" t="s">
-        <v>693</v>
+        <v>773</v>
       </c>
       <c r="J82" t="s">
-        <v>694</v>
+        <v>774</v>
       </c>
       <c r="K82" t="s">
-        <v>695</v>
+        <v>775</v>
       </c>
       <c r="L82" t="s">
-        <v>696</v>
+        <v>776</v>
       </c>
       <c r="M82" t="n">
         <v>4</v>
       </c>
       <c r="N82" t="s">
-        <v>697</v>
+        <v>777</v>
       </c>
       <c r="O82" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P82" t="n">
         <v>4</v>
@@ -7849,50 +8409,54 @@
       <c r="W82" t="s"/>
       <c r="X82" t="s"/>
       <c r="Y82" t="s">
-        <v>696</v>
+        <v>776</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="n">
         <v>20384</v>
       </c>
-      <c r="B83" t="s"/>
-      <c r="C83" t="s"/>
+      <c r="B83" t="n">
+        <v>126960</v>
+      </c>
+      <c r="C83" t="s">
+        <v>778</v>
+      </c>
       <c r="D83" t="n">
         <v>82</v>
       </c>
       <c r="E83" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F83" t="s">
-        <v>698</v>
+        <v>779</v>
       </c>
       <c r="G83" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H83" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I83" t="s">
-        <v>699</v>
+        <v>780</v>
       </c>
       <c r="J83" t="s">
-        <v>700</v>
+        <v>781</v>
       </c>
       <c r="K83" t="s">
-        <v>701</v>
+        <v>782</v>
       </c>
       <c r="L83" t="s">
-        <v>702</v>
+        <v>783</v>
       </c>
       <c r="M83" t="n">
         <v>4</v>
       </c>
       <c r="N83" t="s">
-        <v>703</v>
+        <v>784</v>
       </c>
       <c r="O83" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P83" t="n">
         <v>4</v>
@@ -7914,41 +8478,45 @@
       <c r="W83" t="s"/>
       <c r="X83" t="s"/>
       <c r="Y83" t="s">
-        <v>704</v>
+        <v>785</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="n">
         <v>20384</v>
       </c>
-      <c r="B84" t="s"/>
-      <c r="C84" t="s"/>
+      <c r="B84" t="n">
+        <v>126961</v>
+      </c>
+      <c r="C84" t="s">
+        <v>786</v>
+      </c>
       <c r="D84" t="n">
         <v>83</v>
       </c>
       <c r="E84" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F84" t="s">
-        <v>705</v>
+        <v>787</v>
       </c>
       <c r="G84" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H84" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I84" t="s">
-        <v>706</v>
+        <v>788</v>
       </c>
       <c r="J84" t="s">
-        <v>707</v>
+        <v>789</v>
       </c>
       <c r="K84" t="s">
-        <v>708</v>
+        <v>790</v>
       </c>
       <c r="L84" t="s">
-        <v>709</v>
+        <v>791</v>
       </c>
       <c r="M84" t="n">
         <v>4</v>
@@ -7975,13 +8543,13 @@
         <v>0</v>
       </c>
       <c r="W84" t="s">
-        <v>710</v>
+        <v>792</v>
       </c>
       <c r="X84" t="s">
-        <v>711</v>
+        <v>793</v>
       </c>
       <c r="Y84" t="s">
-        <v>712</v>
+        <v>794</v>
       </c>
     </row>
   </sheetData>
